--- a/Översikt HERRLJUNGA.xlsx
+++ b/Översikt HERRLJUNGA.xlsx
@@ -575,7 +575,7 @@
         <v>45072</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44546</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>45399.49349537037</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         <v>45771.63234953704</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>44876.75724537037</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>44378.55261574074</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>44422.5627662037</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>44417.48436342592</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>44529.49225694445</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
         <v>44525.61166666666</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>44417</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1333,7 +1333,7 @@
         <v>44473.51674768519</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>44497.37104166667</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>44307</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>44533</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>44496.39097222222</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1618,7 +1618,7 @@
         <v>44474</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         <v>44474.42125</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         <v>44441</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1789,7 +1789,7 @@
         <v>44417.41164351852</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>44719</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
         <v>44754.85047453704</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1960,7 +1960,7 @@
         <v>44455.40164351852</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2017,7 +2017,7 @@
         <v>44250</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2074,7 +2074,7 @@
         <v>44313</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         <v>44447.30947916667</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
         <v>44659</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         <v>44295.6893287037</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2302,7 +2302,7 @@
         <v>44790.6769212963</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2359,7 +2359,7 @@
         <v>44452</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         <v>44417.48297453704</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>44449.66033564815</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>44447</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>44455.40453703704</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>44242</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>44476.61636574074</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         <v>44313</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2815,7 +2815,7 @@
         <v>44496.38925925926</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         <v>44790.69194444444</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2929,7 +2929,7 @@
         <v>44601.67113425926</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2986,7 +2986,7 @@
         <v>44459</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         <v>44659</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3100,7 +3100,7 @@
         <v>44244.5500925926</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3157,7 +3157,7 @@
         <v>44363</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3214,7 +3214,7 @@
         <v>44775.58739583333</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>44868.60407407407</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
         <v>44246</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
         <v>44638.47898148148</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3442,7 +3442,7 @@
         <v>44441.52818287037</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
         <v>44441.53571759259</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         <v>44834.48917824074</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3613,7 +3613,7 @@
         <v>44519.36746527778</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3670,7 +3670,7 @@
         <v>44502.78605324074</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3727,7 +3727,7 @@
         <v>44305</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3784,7 +3784,7 @@
         <v>44817.35599537037</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>44831.58648148148</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3898,7 +3898,7 @@
         <v>44237.48460648148</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         <v>44581.42015046296</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4012,7 +4012,7 @@
         <v>44838.56086805555</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4069,7 +4069,7 @@
         <v>44748.42290509259</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4126,7 +4126,7 @@
         <v>44847</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4183,7 +4183,7 @@
         <v>44253</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4240,7 +4240,7 @@
         <v>44538.58409722222</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4297,7 +4297,7 @@
         <v>44251</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4354,7 +4354,7 @@
         <v>44421</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         <v>45082</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4473,7 +4473,7 @@
         <v>44236</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
         <v>44900.43155092592</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4587,7 +4587,7 @@
         <v>44900</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4644,7 +4644,7 @@
         <v>45019.2590162037</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4701,7 +4701,7 @@
         <v>45188.80806712963</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4758,7 +4758,7 @@
         <v>44524.56443287037</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4815,7 +4815,7 @@
         <v>45723.64576388889</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4872,7 +4872,7 @@
         <v>45265</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4929,7 +4929,7 @@
         <v>45172</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4986,7 +4986,7 @@
         <v>44419.62418981481</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5043,7 +5043,7 @@
         <v>45517.57243055556</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         <v>45377.36488425926</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         <v>45327.47517361111</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5219,7 +5219,7 @@
         <v>45639.5506712963</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5276,7 +5276,7 @@
         <v>45603.61920138889</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5333,7 +5333,7 @@
         <v>45721.73456018518</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5390,7 +5390,7 @@
         <v>45306.61583333334</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         <v>45685.45357638889</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         <v>45736.57993055556</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5561,7 +5561,7 @@
         <v>44566.54390046297</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5618,7 +5618,7 @@
         <v>45770.69283564815</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         <v>45365.49547453703</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         <v>45557</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
         <v>45357</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         <v>44854</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5908,7 +5908,7 @@
         <v>45446</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5965,7 +5965,7 @@
         <v>45705.38988425926</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6022,7 +6022,7 @@
         <v>45285</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6079,7 +6079,7 @@
         <v>44593</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6136,7 +6136,7 @@
         <v>45051.6987037037</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6193,7 +6193,7 @@
         <v>45306.61697916667</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6250,7 +6250,7 @@
         <v>45335.36597222222</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>44995</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         <v>45798.52034722222</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>45677.57553240741</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
         <v>45803.35596064815</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
         <v>45803.35204861111</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         <v>44295.51916666667</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>44525</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>45803.3384375</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6763,7 +6763,7 @@
         <v>45803.35353009259</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6820,7 +6820,7 @@
         <v>45194.4964699074</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6877,7 +6877,7 @@
         <v>45098.71601851852</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6934,7 +6934,7 @@
         <v>45724.41099537037</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         <v>45273</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         <v>45138.40096064815</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7105,7 +7105,7 @@
         <v>45805.4690625</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7162,7 +7162,7 @@
         <v>44917.50943287037</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         <v>45310.35899305555</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7281,7 +7281,7 @@
         <v>45756</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7338,7 +7338,7 @@
         <v>45511.48479166667</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7395,7 +7395,7 @@
         <v>45491</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7452,7 +7452,7 @@
         <v>45771</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7509,7 +7509,7 @@
         <v>45085.57719907408</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7566,7 +7566,7 @@
         <v>45810.65199074074</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7623,7 +7623,7 @@
         <v>45888</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7680,7 +7680,7 @@
         <v>45595.53736111111</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7737,7 +7737,7 @@
         <v>44679.53668981481</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7794,7 +7794,7 @@
         <v>45548.40048611111</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7851,7 +7851,7 @@
         <v>45889.61847222222</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7908,7 +7908,7 @@
         <v>45684.41334490741</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7965,7 +7965,7 @@
         <v>45728.59554398148</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8022,7 +8022,7 @@
         <v>45811.33570601852</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8079,7 +8079,7 @@
         <v>45418</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8136,7 +8136,7 @@
         <v>45890.46686342593</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8198,7 +8198,7 @@
         <v>45891.33506944445</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8260,7 +8260,7 @@
         <v>45890.55415509259</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8317,7 +8317,7 @@
         <v>45890.47210648148</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>45890</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>45567.46769675926</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8493,7 +8493,7 @@
         <v>45345.40760416666</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8550,7 +8550,7 @@
         <v>45267.45653935185</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8607,7 +8607,7 @@
         <v>45894.47168981482</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8664,7 +8664,7 @@
         <v>45337.66972222222</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8721,7 +8721,7 @@
         <v>45897.64601851852</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8778,7 +8778,7 @@
         <v>45897.65413194444</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8835,7 +8835,7 @@
         <v>45897.65601851852</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8892,7 +8892,7 @@
         <v>45897.65775462963</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8949,7 +8949,7 @@
         <v>45897.49462962963</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9006,7 +9006,7 @@
         <v>45897.64824074074</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9063,7 +9063,7 @@
         <v>45897.64988425926</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>45897.65219907407</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9177,7 +9177,7 @@
         <v>45896.68271990741</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9234,7 +9234,7 @@
         <v>44686.65587962963</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9291,7 +9291,7 @@
         <v>45274.60491898148</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9348,7 +9348,7 @@
         <v>45819.61297453703</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9405,7 +9405,7 @@
         <v>45562.75159722222</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9462,7 +9462,7 @@
         <v>44895</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9519,7 +9519,7 @@
         <v>45819</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9576,7 +9576,7 @@
         <v>45317.48802083333</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9638,7 +9638,7 @@
         <v>45476.72542824074</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9695,7 +9695,7 @@
         <v>45908.3166087963</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9752,7 +9752,7 @@
         <v>45737.38832175926</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9809,7 +9809,7 @@
         <v>45736.60548611111</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9866,7 +9866,7 @@
         <v>45743.38391203704</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9923,7 +9923,7 @@
         <v>45726.60582175926</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9980,7 +9980,7 @@
         <v>45728.45510416666</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10037,7 +10037,7 @@
         <v>45728.45725694444</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10094,7 +10094,7 @@
         <v>45827.37181712963</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>45827.35715277777</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10208,7 +10208,7 @@
         <v>45373</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>45005.37168981481</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>44790</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10379,7 +10379,7 @@
         <v>45736.60425925926</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10436,7 +10436,7 @@
         <v>45728.64533564815</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10493,7 +10493,7 @@
         <v>45733.36819444445</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10555,7 +10555,7 @@
         <v>45916.67724537037</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10617,7 +10617,7 @@
         <v>44958.48936342593</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10674,7 +10674,7 @@
         <v>45916.48246527778</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>45916.49414351852</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10788,7 +10788,7 @@
         <v>45918.66608796296</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10845,7 +10845,7 @@
         <v>45919.38120370371</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10902,7 +10902,7 @@
         <v>44942.38057870371</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10959,7 +10959,7 @@
         <v>45922.33628472222</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11016,7 +11016,7 @@
         <v>45922.85010416667</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11073,7 +11073,7 @@
         <v>45922.85353009259</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11130,7 +11130,7 @@
         <v>45155.54638888889</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11187,7 +11187,7 @@
         <v>45155.55584490741</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11244,7 +11244,7 @@
         <v>45833.3154050926</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11301,7 +11301,7 @@
         <v>45922.85178240741</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11358,7 +11358,7 @@
         <v>45925.71373842593</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11415,7 +11415,7 @@
         <v>45212.49534722222</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11472,7 +11472,7 @@
         <v>45350.58181712963</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>44847</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11591,7 +11591,7 @@
         <v>45833.32037037037</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11648,7 +11648,7 @@
         <v>45834.64103009259</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>45177.67642361111</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11762,7 +11762,7 @@
         <v>45926.46318287037</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11819,7 +11819,7 @@
         <v>45614.63621527778</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11876,7 +11876,7 @@
         <v>45614.64042824074</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>45835.61480324074</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11990,7 +11990,7 @@
         <v>45929.70454861111</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12047,7 +12047,7 @@
         <v>45834.41769675926</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12104,7 +12104,7 @@
         <v>44533.39519675926</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12161,7 +12161,7 @@
         <v>45176.32940972222</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12218,7 +12218,7 @@
         <v>45615.37197916667</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12275,7 +12275,7 @@
         <v>45763.80842592593</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12337,7 +12337,7 @@
         <v>45931.66099537037</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12394,7 +12394,7 @@
         <v>45159</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12451,7 +12451,7 @@
         <v>45838.32111111111</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12508,7 +12508,7 @@
         <v>45660.50104166667</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12565,7 +12565,7 @@
         <v>45933.66127314815</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12622,7 +12622,7 @@
         <v>45030.39709490741</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12679,7 +12679,7 @@
         <v>45841</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12736,7 +12736,7 @@
         <v>45582.65775462963</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12793,7 +12793,7 @@
         <v>45938.52655092593</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12850,7 +12850,7 @@
         <v>44914.28622685185</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         <v>45092</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12964,7 +12964,7 @@
         <v>44860.6234375</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13021,7 +13021,7 @@
         <v>45841</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13078,7 +13078,7 @@
         <v>44980.34190972222</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13135,7 +13135,7 @@
         <v>44904</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13197,7 +13197,7 @@
         <v>45679</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13254,7 +13254,7 @@
         <v>44700.61409722222</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13311,7 +13311,7 @@
         <v>45099.60644675926</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13368,7 +13368,7 @@
         <v>45335.57622685185</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13425,7 +13425,7 @@
         <v>45947.57024305555</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13482,7 +13482,7 @@
         <v>45266</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13539,7 +13539,7 @@
         <v>45947.57166666666</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13596,7 +13596,7 @@
         <v>45214.8296875</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13653,7 +13653,7 @@
         <v>45950.36163194444</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13710,7 +13710,7 @@
         <v>45950.36862268519</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13767,7 +13767,7 @@
         <v>45664.40298611111</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13829,7 +13829,7 @@
         <v>45587.70663194444</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13891,7 +13891,7 @@
         <v>45587.74337962963</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13953,7 +13953,7 @@
         <v>45581.35340277778</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14010,7 +14010,7 @@
         <v>45705.42427083333</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14067,7 +14067,7 @@
         <v>45678.58040509259</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14124,7 +14124,7 @@
         <v>44890.66952546296</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14181,7 +14181,7 @@
         <v>45950.36725694445</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14238,7 +14238,7 @@
         <v>45155.55261574074</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14295,7 +14295,7 @@
         <v>45859.47175925926</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14352,7 +14352,7 @@
         <v>45702.55307870371</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14409,7 +14409,7 @@
         <v>45952.55898148148</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         <v>45952.5709375</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14523,7 +14523,7 @@
         <v>45578.74212962963</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14580,7 +14580,7 @@
         <v>45952.56828703704</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14637,7 +14637,7 @@
         <v>45952.60252314815</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14694,7 +14694,7 @@
         <v>45957.60668981481</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14751,7 +14751,7 @@
         <v>45957.6135300926</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14808,7 +14808,7 @@
         <v>45873.73810185185</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14865,7 +14865,7 @@
         <v>45546.47134259259</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14922,7 +14922,7 @@
         <v>45546.47361111111</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -14979,7 +14979,7 @@
         <v>45267.43561342593</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15036,7 +15036,7 @@
         <v>45267</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15093,7 +15093,7 @@
         <v>45728.64429398148</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15150,7 +15150,7 @@
         <v>45957</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15207,7 +15207,7 @@
         <v>45873.73373842592</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15264,7 +15264,7 @@
         <v>44474.35072916667</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15321,7 +15321,7 @@
         <v>44977.31903935185</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15378,7 +15378,7 @@
         <v>45875.46065972222</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15435,7 +15435,7 @@
         <v>45875.46194444445</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15492,7 +15492,7 @@
         <v>45567.60662037037</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15549,7 +15549,7 @@
         <v>45875.49515046296</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15606,7 +15606,7 @@
         <v>45587.43553240741</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15663,7 +15663,7 @@
         <v>45321.57921296296</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15720,7 +15720,7 @@
         <v>45959</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15777,7 +15777,7 @@
         <v>45960.61454861111</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15834,7 +15834,7 @@
         <v>45265.65109953703</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15891,7 +15891,7 @@
         <v>45876.43549768518</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -15948,7 +15948,7 @@
         <v>44236</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16005,7 +16005,7 @@
         <v>45084.85409722223</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16062,7 +16062,7 @@
         <v>45964.56824074074</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16119,7 +16119,7 @@
         <v>45772.66884259259</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16176,7 +16176,7 @@
         <v>44882</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16233,7 +16233,7 @@
         <v>45327.49081018518</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16290,7 +16290,7 @@
         <v>45839.46179398148</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16347,7 +16347,7 @@
         <v>45621.52608796296</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16404,7 +16404,7 @@
         <v>45966.64700231481</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         <v>45966.64835648148</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>45643.63238425926</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>45883.40136574074</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16632,7 +16632,7 @@
         <v>44295.51916666667</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16689,7 +16689,7 @@
         <v>44942.38228009259</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16746,7 +16746,7 @@
         <v>44305</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16803,7 +16803,7 @@
         <v>45172</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -16860,7 +16860,7 @@
         <v>45153.60082175926</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
         <v>45974.75811342592</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -16974,7 +16974,7 @@
         <v>44995</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17031,7 +17031,7 @@
         <v>44847.43722222222</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>44686.65185185185</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
         <v>45978.56829861111</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17207,7 +17207,7 @@
         <v>45618.70145833334</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17264,7 +17264,7 @@
         <v>45315.40715277778</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17321,7 +17321,7 @@
         <v>45980.32965277778</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17378,7 +17378,7 @@
         <v>44950.83806712963</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17435,7 +17435,7 @@
         <v>45985.37597222222</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17492,7 +17492,7 @@
         <v>45985.36587962963</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17549,7 +17549,7 @@
         <v>45985.36349537037</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17606,7 +17606,7 @@
         <v>45986.63912037037</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17663,7 +17663,7 @@
         <v>45986.84456018519</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17720,7 +17720,7 @@
         <v>45986.63512731482</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17777,7 +17777,7 @@
         <v>45986.64166666667</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -17834,7 +17834,7 @@
         <v>46029</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -17896,7 +17896,7 @@
         <v>45705.78310185186</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -17953,7 +17953,7 @@
         <v>46031.33475694444</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18010,7 +18010,7 @@
         <v>46031.43129629629</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18067,7 +18067,7 @@
         <v>46029</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18129,7 +18129,7 @@
         <v>45989.46027777778</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18191,7 +18191,7 @@
         <v>45989.66394675926</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>45425.42435185185</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18310,7 +18310,7 @@
         <v>45707.23298611111</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18367,7 +18367,7 @@
         <v>45138.39662037037</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
         <v>45993.60032407408</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18481,7 +18481,7 @@
         <v>45433</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18538,7 +18538,7 @@
         <v>45678.67545138889</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         <v>44256</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18652,7 +18652,7 @@
         <v>45453.82998842592</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         <v>46035.55513888889</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         <v>46036.67758101852</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18823,7 +18823,7 @@
         <v>45107.91672453703</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>44380</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>46031</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -18994,7 +18994,7 @@
         <v>46031</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19051,7 +19051,7 @@
         <v>46031</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19108,7 +19108,7 @@
         <v>45708.36219907407</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19165,7 +19165,7 @@
         <v>45639.54719907408</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19222,7 +19222,7 @@
         <v>45153.56390046296</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19279,7 +19279,7 @@
         <v>45163</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19336,7 +19336,7 @@
         <v>45480.63773148148</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19393,7 +19393,7 @@
         <v>46031</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19450,7 +19450,7 @@
         <v>46031</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19507,7 +19507,7 @@
         <v>46031</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19564,7 +19564,7 @@
         <v>46036.52319444445</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19621,7 +19621,7 @@
         <v>45614.64645833334</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19678,7 +19678,7 @@
         <v>45614.65366898148</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19735,7 +19735,7 @@
         <v>45303.53072916667</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19792,7 +19792,7 @@
         <v>45303.59265046296</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -19849,7 +19849,7 @@
         <v>44984.78379629629</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         <v>45086.47355324074</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         <v>44904</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20025,7 +20025,7 @@
         <v>45996.31261574074</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20087,7 +20087,7 @@
         <v>46000</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20144,7 +20144,7 @@
         <v>46043</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20201,7 +20201,7 @@
         <v>46000</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20258,7 +20258,7 @@
         <v>44524.56353009259</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20315,7 +20315,7 @@
         <v>44900.43481481481</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20372,7 +20372,7 @@
         <v>44313.89017361111</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20429,7 +20429,7 @@
         <v>46043.339375</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20486,7 +20486,7 @@
         <v>44659</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20543,7 +20543,7 @@
         <v>45526.52795138889</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20600,7 +20600,7 @@
         <v>45303.57658564814</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20657,7 +20657,7 @@
         <v>45622.57908564815</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20714,7 +20714,7 @@
         <v>45624.7383912037</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -20771,7 +20771,7 @@
         <v>45723.64722222222</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -20828,7 +20828,7 @@
         <v>45101.80099537037</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -20885,7 +20885,7 @@
         <v>45337.68260416666</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -20942,7 +20942,7 @@
         <v>46006.43011574074</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21004,7 +21004,7 @@
         <v>44866</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21061,7 +21061,7 @@
         <v>46048.39719907408</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21118,7 +21118,7 @@
         <v>45149.65513888889</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21175,7 +21175,7 @@
         <v>45082</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21237,7 +21237,7 @@
         <v>45009.505625</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21294,7 +21294,7 @@
         <v>46050.49346064815</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21351,7 +21351,7 @@
         <v>45196</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21408,7 +21408,7 @@
         <v>44917.51072916666</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21465,7 +21465,7 @@
         <v>45742.43068287037</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21522,7 +21522,7 @@
         <v>46013</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21579,7 +21579,7 @@
         <v>45005.33422453704</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21636,7 +21636,7 @@
         <v>45072</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21718,7 +21718,7 @@
         <v>45271.49912037037</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21775,7 +21775,7 @@
         <v>46013</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -21832,7 +21832,7 @@
         <v>45446</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -21889,7 +21889,7 @@
         <v>45021</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -21946,7 +21946,7 @@
         <v>45705.36880787037</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22003,7 +22003,7 @@
         <v>45700.77680555556</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22060,7 +22060,7 @@
         <v>46044</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22117,7 +22117,7 @@
         <v>44511.61333333333</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22174,7 +22174,7 @@
         <v>44918.46096064815</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22231,7 +22231,7 @@
         <v>46043.85776620371</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22288,7 +22288,7 @@
         <v>45583.47204861111</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22345,7 +22345,7 @@
         <v>44917.51208333333</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22402,7 +22402,7 @@
         <v>44574</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22459,7 +22459,7 @@
         <v>45771.53150462963</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22516,7 +22516,7 @@
         <v>45771.53564814815</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22573,7 +22573,7 @@
         <v>45771.54677083333</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22630,7 +22630,7 @@
         <v>45277.77255787037</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22687,7 +22687,7 @@
         <v>44380</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22744,7 +22744,7 @@
         <v>45763.67412037037</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -22801,7 +22801,7 @@
         <v>45772.66784722222</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -22858,7 +22858,7 @@
         <v>45756.49090277778</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -22915,7 +22915,7 @@
         <v>45565.55225694444</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -22972,7 +22972,7 @@
         <v>44952.54989583333</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23029,7 +23029,7 @@
         <v>44665.67701388889</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23086,7 +23086,7 @@
         <v>45400.51723379629</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23143,7 +23143,7 @@
         <v>45527.48158564815</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23200,7 +23200,7 @@
         <v>45233.64104166667</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23257,7 +23257,7 @@
         <v>44691</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23314,7 +23314,7 @@
         <v>44459</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23371,7 +23371,7 @@
         <v>45614.6421875</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23428,7 +23428,7 @@
         <v>45077</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23485,7 +23485,7 @@
         <v>44893.40965277778</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23542,7 +23542,7 @@
         <v>45373.65864583333</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23599,7 +23599,7 @@
         <v>45280.37271990741</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23656,7 +23656,7 @@
         <v>45614.48202546296</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23713,7 +23713,7 @@
         <v>45189.9100925926</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -23770,7 +23770,7 @@
         <v>45236.67905092592</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -23827,7 +23827,7 @@
         <v>44811</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -23884,7 +23884,7 @@
         <v>45327</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -23941,7 +23941,7 @@
         <v>44551.40778935186</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -23998,7 +23998,7 @@
         <v>45265.65418981481</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24055,7 +24055,7 @@
         <v>45211.72998842593</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24112,7 +24112,7 @@
         <v>44638.47725694445</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24169,7 +24169,7 @@
         <v>44236</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         <v>45763.66309027778</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         <v>45763.68108796296</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24340,7 +24340,7 @@
         <v>45009.50658564815</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24397,7 +24397,7 @@
         <v>45160.75662037037</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24454,7 +24454,7 @@
         <v>44867.368125</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24511,7 +24511,7 @@
         <v>45760.88792824074</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24568,7 +24568,7 @@
         <v>45303.53243055556</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24625,7 +24625,7 @@
         <v>45219.48835648148</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24682,7 +24682,7 @@
         <v>45526.53488425926</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -24739,7 +24739,7 @@
         <v>45266</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -24796,7 +24796,7 @@
         <v>44890.66738425926</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -24853,7 +24853,7 @@
         <v>45222</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -24910,7 +24910,7 @@
         <v>45468.60724537037</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>45713.4958912037</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25024,7 +25024,7 @@
         <v>45736.58108796296</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25081,7 +25081,7 @@
         <v>44733.444375</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25138,7 +25138,7 @@
         <v>45705.37196759259</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25195,7 +25195,7 @@
         <v>44644</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25252,7 +25252,7 @@
         <v>45231</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25309,7 +25309,7 @@
         <v>45595.79767361111</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25366,7 +25366,7 @@
         <v>45679</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25423,7 +25423,7 @@
         <v>44719</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25480,7 +25480,7 @@
         <v>45016.7299537037</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25537,7 +25537,7 @@
         <v>45616.64193287037</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25594,7 +25594,7 @@
         <v>45616.64283564815</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         <v>45021.3778587963</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25708,7 +25708,7 @@
         <v>45482</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -25765,7 +25765,7 @@
         <v>45247.60436342593</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -25822,7 +25822,7 @@
         <v>45763.8155787037</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -25884,7 +25884,7 @@
         <v>45298.51369212963</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -25941,7 +25941,7 @@
         <v>45736.57563657407</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -25998,7 +25998,7 @@
         <v>44396</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26055,7 +26055,7 @@
         <v>45546.55621527778</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26112,7 +26112,7 @@
         <v>45005</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26169,7 +26169,7 @@
         <v>44757.52935185185</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         <v>45685.65405092593</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26283,7 +26283,7 @@
         <v>45168.65719907408</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26340,7 +26340,7 @@
         <v>45587.45049768518</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26397,7 +26397,7 @@
         <v>45747.42072916667</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26454,7 +26454,7 @@
         <v>44605.61115740741</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26511,7 +26511,7 @@
         <v>44300.57024305555</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26568,7 +26568,7 @@
         <v>45414.36018518519</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26625,7 +26625,7 @@
         <v>44908.62335648148</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26682,7 +26682,7 @@
         <v>45615.53488425926</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -26739,7 +26739,7 @@
         <v>44357</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -26796,7 +26796,7 @@
         <v>45728.78711805555</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -26853,7 +26853,7 @@
         <v>44740.44717592592</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -26910,7 +26910,7 @@
         <v>45713.4978125</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -26967,7 +26967,7 @@
         <v>45713.49877314815</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27024,7 +27024,7 @@
         <v>45277</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27081,7 +27081,7 @@
         <v>45793.38550925926</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27138,7 +27138,7 @@
         <v>45792.5219212963</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27195,7 +27195,7 @@
         <v>45796.44579861111</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>

--- a/Översikt HERRLJUNGA.xlsx
+++ b/Översikt HERRLJUNGA.xlsx
@@ -575,7 +575,7 @@
         <v>45072</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44546</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>45399.49349537037</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         <v>45771.63234953704</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>44876.75724537037</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>44378.55261574074</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>44422.5627662037</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>44417.48436342592</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>44529.49225694445</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
         <v>44525.61166666666</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>44417</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1333,7 +1333,7 @@
         <v>44473.51674768519</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>44497.37104166667</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>44307</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>44533</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>44496.39097222222</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1618,7 +1618,7 @@
         <v>44474</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         <v>44474.42125</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         <v>44441</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1789,7 +1789,7 @@
         <v>44417.41164351852</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>44719</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
         <v>44754.85047453704</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1960,7 +1960,7 @@
         <v>44455.40164351852</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2017,7 +2017,7 @@
         <v>44250</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2074,7 +2074,7 @@
         <v>44313</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         <v>44447.30947916667</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
         <v>44659</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         <v>44295.6893287037</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2302,7 +2302,7 @@
         <v>44790.6769212963</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2359,7 +2359,7 @@
         <v>44452</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         <v>44417.48297453704</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>44449.66033564815</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>44447</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>44455.40453703704</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>44242</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>44476.61636574074</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         <v>44313</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2815,7 +2815,7 @@
         <v>44496.38925925926</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         <v>44790.69194444444</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2929,7 +2929,7 @@
         <v>44601.67113425926</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2986,7 +2986,7 @@
         <v>44459</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         <v>44659</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3100,7 +3100,7 @@
         <v>44244.5500925926</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3157,7 +3157,7 @@
         <v>44363</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3214,7 +3214,7 @@
         <v>44775.58739583333</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>44868.60407407407</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
         <v>44246</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
         <v>44638.47898148148</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3442,7 +3442,7 @@
         <v>44441.52818287037</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
         <v>44441.53571759259</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         <v>44834.48917824074</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3613,7 +3613,7 @@
         <v>44519.36746527778</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3670,7 +3670,7 @@
         <v>44502.78605324074</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3727,7 +3727,7 @@
         <v>44305</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3784,7 +3784,7 @@
         <v>44817.35599537037</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>44831.58648148148</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3898,7 +3898,7 @@
         <v>44237.48460648148</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         <v>44581.42015046296</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4012,7 +4012,7 @@
         <v>44838.56086805555</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4069,7 +4069,7 @@
         <v>44748.42290509259</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4126,7 +4126,7 @@
         <v>44847</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4183,7 +4183,7 @@
         <v>44253</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4240,7 +4240,7 @@
         <v>44538.58409722222</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4297,7 +4297,7 @@
         <v>44251</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4354,7 +4354,7 @@
         <v>44421</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         <v>45082</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4473,7 +4473,7 @@
         <v>44236</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
         <v>44900.43155092592</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4587,7 +4587,7 @@
         <v>44900</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4644,7 +4644,7 @@
         <v>45019.2590162037</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4701,7 +4701,7 @@
         <v>45188.80806712963</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4758,7 +4758,7 @@
         <v>44524.56443287037</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4815,7 +4815,7 @@
         <v>45723.64576388889</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4872,7 +4872,7 @@
         <v>45265</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4929,7 +4929,7 @@
         <v>45172</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4986,7 +4986,7 @@
         <v>44419.62418981481</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5043,7 +5043,7 @@
         <v>45517.57243055556</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         <v>45377.36488425926</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         <v>45327.47517361111</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5219,7 +5219,7 @@
         <v>45639.5506712963</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5276,7 +5276,7 @@
         <v>45603.61920138889</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5333,7 +5333,7 @@
         <v>45721.73456018518</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5390,7 +5390,7 @@
         <v>45306.61583333334</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         <v>45685.45357638889</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         <v>45736.57993055556</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5561,7 +5561,7 @@
         <v>44566.54390046297</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5618,7 +5618,7 @@
         <v>45770.69283564815</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         <v>45365.49547453703</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         <v>45557</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
         <v>45357</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         <v>44854</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5908,7 +5908,7 @@
         <v>45446</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5965,7 +5965,7 @@
         <v>45705.38988425926</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6022,7 +6022,7 @@
         <v>45285</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6079,7 +6079,7 @@
         <v>44593</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6136,7 +6136,7 @@
         <v>45051.6987037037</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6193,7 +6193,7 @@
         <v>45306.61697916667</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6250,7 +6250,7 @@
         <v>45335.36597222222</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>44995</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         <v>45798.52034722222</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>45677.57553240741</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
         <v>45803.35596064815</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
         <v>45803.35204861111</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         <v>44295.51916666667</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>44525</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>45803.3384375</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6763,7 +6763,7 @@
         <v>45803.35353009259</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6820,7 +6820,7 @@
         <v>45194.4964699074</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6877,7 +6877,7 @@
         <v>45098.71601851852</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6934,7 +6934,7 @@
         <v>45724.41099537037</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         <v>45273</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         <v>45138.40096064815</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7105,7 +7105,7 @@
         <v>45805.4690625</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7162,7 +7162,7 @@
         <v>44917.50943287037</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         <v>45310.35899305555</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7281,7 +7281,7 @@
         <v>45756</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7338,7 +7338,7 @@
         <v>45511.48479166667</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7395,7 +7395,7 @@
         <v>45491</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7452,7 +7452,7 @@
         <v>45771</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7509,7 +7509,7 @@
         <v>45085.57719907408</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7566,7 +7566,7 @@
         <v>45810.65199074074</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7623,7 +7623,7 @@
         <v>45888</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7680,7 +7680,7 @@
         <v>45595.53736111111</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7737,7 +7737,7 @@
         <v>44679.53668981481</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7794,7 +7794,7 @@
         <v>45548.40048611111</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7851,7 +7851,7 @@
         <v>45889.61847222222</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7908,7 +7908,7 @@
         <v>45684.41334490741</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7965,7 +7965,7 @@
         <v>45728.59554398148</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8022,7 +8022,7 @@
         <v>45811.33570601852</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8079,7 +8079,7 @@
         <v>45418</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8136,7 +8136,7 @@
         <v>45890.46686342593</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8198,7 +8198,7 @@
         <v>45891.33506944445</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8260,7 +8260,7 @@
         <v>45890.55415509259</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8317,7 +8317,7 @@
         <v>45890.47210648148</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>45890</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>45567.46769675926</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8493,7 +8493,7 @@
         <v>45345.40760416666</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8550,7 +8550,7 @@
         <v>45267.45653935185</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8607,7 +8607,7 @@
         <v>45894.47168981482</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8664,7 +8664,7 @@
         <v>45337.66972222222</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8721,7 +8721,7 @@
         <v>45897.64601851852</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8778,7 +8778,7 @@
         <v>45897.65413194444</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8835,7 +8835,7 @@
         <v>45897.65601851852</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8892,7 +8892,7 @@
         <v>45897.65775462963</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8949,7 +8949,7 @@
         <v>45897.49462962963</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9006,7 +9006,7 @@
         <v>45897.64824074074</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9063,7 +9063,7 @@
         <v>45897.64988425926</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>45897.65219907407</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9177,7 +9177,7 @@
         <v>45896.68271990741</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9234,7 +9234,7 @@
         <v>44686.65587962963</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9291,7 +9291,7 @@
         <v>45274.60491898148</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9348,7 +9348,7 @@
         <v>45819.61297453703</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9405,7 +9405,7 @@
         <v>45562.75159722222</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9462,7 +9462,7 @@
         <v>44895</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9519,7 +9519,7 @@
         <v>45819</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9576,7 +9576,7 @@
         <v>45317.48802083333</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9638,7 +9638,7 @@
         <v>45476.72542824074</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9695,7 +9695,7 @@
         <v>45908.3166087963</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9752,7 +9752,7 @@
         <v>45737.38832175926</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9809,7 +9809,7 @@
         <v>45736.60548611111</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9866,7 +9866,7 @@
         <v>45743.38391203704</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9923,7 +9923,7 @@
         <v>45726.60582175926</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9980,7 +9980,7 @@
         <v>45728.45510416666</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10037,7 +10037,7 @@
         <v>45728.45725694444</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10094,7 +10094,7 @@
         <v>45827.37181712963</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>45827.35715277777</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10208,7 +10208,7 @@
         <v>45373</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>45005.37168981481</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>44790</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10379,7 +10379,7 @@
         <v>45736.60425925926</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10436,7 +10436,7 @@
         <v>45728.64533564815</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10493,7 +10493,7 @@
         <v>45733.36819444445</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10555,7 +10555,7 @@
         <v>45916.67724537037</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10617,7 +10617,7 @@
         <v>44958.48936342593</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10674,7 +10674,7 @@
         <v>45916.48246527778</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>45916.49414351852</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10788,7 +10788,7 @@
         <v>45918.66608796296</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10845,7 +10845,7 @@
         <v>45919.38120370371</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10902,7 +10902,7 @@
         <v>44942.38057870371</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10959,7 +10959,7 @@
         <v>45922.33628472222</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11016,7 +11016,7 @@
         <v>45922.85010416667</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11073,7 +11073,7 @@
         <v>45922.85353009259</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11130,7 +11130,7 @@
         <v>45155.54638888889</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11187,7 +11187,7 @@
         <v>45155.55584490741</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11244,7 +11244,7 @@
         <v>45833.3154050926</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11301,7 +11301,7 @@
         <v>45922.85178240741</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11358,7 +11358,7 @@
         <v>45925.71373842593</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11415,7 +11415,7 @@
         <v>45212.49534722222</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11472,7 +11472,7 @@
         <v>45350.58181712963</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>44847</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11591,7 +11591,7 @@
         <v>45833.32037037037</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11648,7 +11648,7 @@
         <v>45834.64103009259</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>45177.67642361111</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11762,7 +11762,7 @@
         <v>45926.46318287037</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11819,7 +11819,7 @@
         <v>45614.63621527778</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11876,7 +11876,7 @@
         <v>45614.64042824074</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>45835.61480324074</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11990,7 +11990,7 @@
         <v>45929.70454861111</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12047,7 +12047,7 @@
         <v>45834.41769675926</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12104,7 +12104,7 @@
         <v>44533.39519675926</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12161,7 +12161,7 @@
         <v>45176.32940972222</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12218,7 +12218,7 @@
         <v>45615.37197916667</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12275,7 +12275,7 @@
         <v>45763.80842592593</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12337,7 +12337,7 @@
         <v>45931.66099537037</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12394,7 +12394,7 @@
         <v>45159</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12451,7 +12451,7 @@
         <v>45838.32111111111</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12508,7 +12508,7 @@
         <v>45660.50104166667</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12565,7 +12565,7 @@
         <v>45933.66127314815</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12622,7 +12622,7 @@
         <v>45030.39709490741</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12679,7 +12679,7 @@
         <v>45841</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12736,7 +12736,7 @@
         <v>45582.65775462963</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12793,7 +12793,7 @@
         <v>45938.52655092593</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12850,7 +12850,7 @@
         <v>44914.28622685185</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         <v>45092</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12964,7 +12964,7 @@
         <v>44860.6234375</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13021,7 +13021,7 @@
         <v>45841</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13078,7 +13078,7 @@
         <v>44980.34190972222</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13135,7 +13135,7 @@
         <v>44904</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13197,7 +13197,7 @@
         <v>45679</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13254,7 +13254,7 @@
         <v>44700.61409722222</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13311,7 +13311,7 @@
         <v>45099.60644675926</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13368,7 +13368,7 @@
         <v>45335.57622685185</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13425,7 +13425,7 @@
         <v>45947.57024305555</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13482,7 +13482,7 @@
         <v>45266</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13539,7 +13539,7 @@
         <v>45947.57166666666</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13596,7 +13596,7 @@
         <v>45214.8296875</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13653,7 +13653,7 @@
         <v>45950.36163194444</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13710,7 +13710,7 @@
         <v>45950.36862268519</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13767,7 +13767,7 @@
         <v>45664.40298611111</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13829,7 +13829,7 @@
         <v>45587.70663194444</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13891,7 +13891,7 @@
         <v>45587.74337962963</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13953,7 +13953,7 @@
         <v>45581.35340277778</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14010,7 +14010,7 @@
         <v>45705.42427083333</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14067,7 +14067,7 @@
         <v>45678.58040509259</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14124,7 +14124,7 @@
         <v>44890.66952546296</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14181,7 +14181,7 @@
         <v>45950.36725694445</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14238,7 +14238,7 @@
         <v>45155.55261574074</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14295,7 +14295,7 @@
         <v>45859.47175925926</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14352,7 +14352,7 @@
         <v>45702.55307870371</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14409,7 +14409,7 @@
         <v>45952.55898148148</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         <v>45952.5709375</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14523,7 +14523,7 @@
         <v>45578.74212962963</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14580,7 +14580,7 @@
         <v>45952.56828703704</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14637,7 +14637,7 @@
         <v>45952.60252314815</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14694,7 +14694,7 @@
         <v>45957.60668981481</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14751,7 +14751,7 @@
         <v>45957.6135300926</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14808,7 +14808,7 @@
         <v>45873.73810185185</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14865,7 +14865,7 @@
         <v>45546.47134259259</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14922,7 +14922,7 @@
         <v>45546.47361111111</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -14979,7 +14979,7 @@
         <v>45267.43561342593</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15036,7 +15036,7 @@
         <v>45267</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15093,7 +15093,7 @@
         <v>45728.64429398148</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15150,7 +15150,7 @@
         <v>45957</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15207,7 +15207,7 @@
         <v>45873.73373842592</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15264,7 +15264,7 @@
         <v>44474.35072916667</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15321,7 +15321,7 @@
         <v>44977.31903935185</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15378,7 +15378,7 @@
         <v>45875.46065972222</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15435,7 +15435,7 @@
         <v>45875.46194444445</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15492,7 +15492,7 @@
         <v>45567.60662037037</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15549,7 +15549,7 @@
         <v>45875.49515046296</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15606,7 +15606,7 @@
         <v>45587.43553240741</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15663,7 +15663,7 @@
         <v>45321.57921296296</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15720,7 +15720,7 @@
         <v>45959</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15777,7 +15777,7 @@
         <v>45960.61454861111</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15834,7 +15834,7 @@
         <v>45265.65109953703</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15891,7 +15891,7 @@
         <v>45876.43549768518</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -15948,7 +15948,7 @@
         <v>44236</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16005,7 +16005,7 @@
         <v>45084.85409722223</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16062,7 +16062,7 @@
         <v>45964.56824074074</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16119,7 +16119,7 @@
         <v>45772.66884259259</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16176,7 +16176,7 @@
         <v>44882</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16233,7 +16233,7 @@
         <v>45327.49081018518</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16290,7 +16290,7 @@
         <v>45839.46179398148</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16347,7 +16347,7 @@
         <v>45621.52608796296</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16404,7 +16404,7 @@
         <v>45966.64700231481</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         <v>45966.64835648148</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>45643.63238425926</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>45883.40136574074</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16632,7 +16632,7 @@
         <v>44295.51916666667</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16689,7 +16689,7 @@
         <v>44942.38228009259</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16746,7 +16746,7 @@
         <v>44305</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16803,7 +16803,7 @@
         <v>45172</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -16860,7 +16860,7 @@
         <v>45153.60082175926</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
         <v>45974.75811342592</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -16974,7 +16974,7 @@
         <v>44995</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17031,7 +17031,7 @@
         <v>44847.43722222222</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>44686.65185185185</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
         <v>45978.56829861111</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17207,7 +17207,7 @@
         <v>45618.70145833334</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17264,7 +17264,7 @@
         <v>45315.40715277778</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17321,7 +17321,7 @@
         <v>45980.32965277778</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17378,7 +17378,7 @@
         <v>44950.83806712963</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17435,7 +17435,7 @@
         <v>45985.37597222222</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17492,7 +17492,7 @@
         <v>45985.36587962963</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17549,7 +17549,7 @@
         <v>45985.36349537037</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17606,7 +17606,7 @@
         <v>45986.63912037037</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17663,7 +17663,7 @@
         <v>45986.84456018519</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17720,7 +17720,7 @@
         <v>45986.63512731482</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17777,7 +17777,7 @@
         <v>45986.64166666667</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -17834,7 +17834,7 @@
         <v>46029</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -17896,7 +17896,7 @@
         <v>45705.78310185186</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -17953,7 +17953,7 @@
         <v>46031.33475694444</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18010,7 +18010,7 @@
         <v>46031.43129629629</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18067,7 +18067,7 @@
         <v>46029</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18129,7 +18129,7 @@
         <v>45989.46027777778</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18191,7 +18191,7 @@
         <v>45989.66394675926</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>45425.42435185185</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18310,7 +18310,7 @@
         <v>45707.23298611111</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18367,7 +18367,7 @@
         <v>45138.39662037037</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
         <v>45993.60032407408</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18481,7 +18481,7 @@
         <v>45433</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18538,7 +18538,7 @@
         <v>45678.67545138889</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         <v>44256</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18652,7 +18652,7 @@
         <v>45453.82998842592</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         <v>46035.55513888889</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         <v>46036.67758101852</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18823,7 +18823,7 @@
         <v>45107.91672453703</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>44380</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>46031</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -18994,7 +18994,7 @@
         <v>46031</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19051,7 +19051,7 @@
         <v>46031</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19108,7 +19108,7 @@
         <v>45708.36219907407</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19165,7 +19165,7 @@
         <v>45639.54719907408</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19222,7 +19222,7 @@
         <v>45153.56390046296</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19279,7 +19279,7 @@
         <v>45163</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19336,7 +19336,7 @@
         <v>45480.63773148148</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19393,7 +19393,7 @@
         <v>46031</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19450,7 +19450,7 @@
         <v>46031</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19507,7 +19507,7 @@
         <v>46031</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19564,7 +19564,7 @@
         <v>46036.52319444445</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19621,7 +19621,7 @@
         <v>45614.64645833334</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19678,7 +19678,7 @@
         <v>45614.65366898148</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19735,7 +19735,7 @@
         <v>45303.53072916667</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19792,7 +19792,7 @@
         <v>45303.59265046296</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -19849,7 +19849,7 @@
         <v>44984.78379629629</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         <v>45086.47355324074</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         <v>44904</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20025,7 +20025,7 @@
         <v>45996.31261574074</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20087,7 +20087,7 @@
         <v>46000</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20144,7 +20144,7 @@
         <v>46043</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20201,7 +20201,7 @@
         <v>46000</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20258,7 +20258,7 @@
         <v>44524.56353009259</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20315,7 +20315,7 @@
         <v>44900.43481481481</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20372,7 +20372,7 @@
         <v>44313.89017361111</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20429,7 +20429,7 @@
         <v>46043.339375</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20486,7 +20486,7 @@
         <v>44659</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20543,7 +20543,7 @@
         <v>45526.52795138889</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20600,7 +20600,7 @@
         <v>45303.57658564814</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20657,7 +20657,7 @@
         <v>45622.57908564815</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20714,7 +20714,7 @@
         <v>45624.7383912037</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -20771,7 +20771,7 @@
         <v>45723.64722222222</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -20828,7 +20828,7 @@
         <v>45101.80099537037</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -20885,7 +20885,7 @@
         <v>45337.68260416666</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -20942,7 +20942,7 @@
         <v>46006.43011574074</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21004,7 +21004,7 @@
         <v>44866</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21061,7 +21061,7 @@
         <v>46048.39719907408</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21118,7 +21118,7 @@
         <v>45149.65513888889</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21175,7 +21175,7 @@
         <v>45082</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21237,7 +21237,7 @@
         <v>45009.505625</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21294,7 +21294,7 @@
         <v>46050.49346064815</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21351,7 +21351,7 @@
         <v>45196</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21408,7 +21408,7 @@
         <v>44917.51072916666</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21465,7 +21465,7 @@
         <v>45742.43068287037</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21522,7 +21522,7 @@
         <v>46013</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21579,7 +21579,7 @@
         <v>45005.33422453704</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21636,7 +21636,7 @@
         <v>45072</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21718,7 +21718,7 @@
         <v>45271.49912037037</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21775,7 +21775,7 @@
         <v>46013</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -21832,7 +21832,7 @@
         <v>45446</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -21889,7 +21889,7 @@
         <v>45021</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -21946,7 +21946,7 @@
         <v>45705.36880787037</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22003,7 +22003,7 @@
         <v>45700.77680555556</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22060,7 +22060,7 @@
         <v>46044</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22117,7 +22117,7 @@
         <v>44511.61333333333</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22174,7 +22174,7 @@
         <v>44918.46096064815</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22231,7 +22231,7 @@
         <v>46043.85776620371</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22288,7 +22288,7 @@
         <v>45583.47204861111</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22345,7 +22345,7 @@
         <v>44917.51208333333</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22402,7 +22402,7 @@
         <v>44574</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22459,7 +22459,7 @@
         <v>45771.53150462963</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22516,7 +22516,7 @@
         <v>45771.53564814815</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22573,7 +22573,7 @@
         <v>45771.54677083333</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22630,7 +22630,7 @@
         <v>45277.77255787037</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22687,7 +22687,7 @@
         <v>44380</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22744,7 +22744,7 @@
         <v>45763.67412037037</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -22801,7 +22801,7 @@
         <v>45772.66784722222</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -22858,7 +22858,7 @@
         <v>45756.49090277778</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -22915,7 +22915,7 @@
         <v>45565.55225694444</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -22972,7 +22972,7 @@
         <v>44952.54989583333</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23029,7 +23029,7 @@
         <v>44665.67701388889</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23086,7 +23086,7 @@
         <v>45400.51723379629</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23143,7 +23143,7 @@
         <v>45527.48158564815</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23200,7 +23200,7 @@
         <v>45233.64104166667</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23257,7 +23257,7 @@
         <v>44691</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23314,7 +23314,7 @@
         <v>44459</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23371,7 +23371,7 @@
         <v>45614.6421875</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23428,7 +23428,7 @@
         <v>45077</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23485,7 +23485,7 @@
         <v>44893.40965277778</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23542,7 +23542,7 @@
         <v>45373.65864583333</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23599,7 +23599,7 @@
         <v>45280.37271990741</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23656,7 +23656,7 @@
         <v>45614.48202546296</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23713,7 +23713,7 @@
         <v>45189.9100925926</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -23770,7 +23770,7 @@
         <v>45236.67905092592</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -23827,7 +23827,7 @@
         <v>44811</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -23884,7 +23884,7 @@
         <v>45327</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -23941,7 +23941,7 @@
         <v>44551.40778935186</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -23998,7 +23998,7 @@
         <v>45265.65418981481</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24055,7 +24055,7 @@
         <v>45211.72998842593</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24112,7 +24112,7 @@
         <v>44638.47725694445</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24169,7 +24169,7 @@
         <v>44236</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         <v>45763.66309027778</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         <v>45763.68108796296</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24340,7 +24340,7 @@
         <v>45009.50658564815</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24397,7 +24397,7 @@
         <v>45160.75662037037</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24454,7 +24454,7 @@
         <v>44867.368125</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24511,7 +24511,7 @@
         <v>45760.88792824074</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24568,7 +24568,7 @@
         <v>45303.53243055556</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24625,7 +24625,7 @@
         <v>45219.48835648148</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24682,7 +24682,7 @@
         <v>45526.53488425926</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -24739,7 +24739,7 @@
         <v>45266</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -24796,7 +24796,7 @@
         <v>44890.66738425926</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -24853,7 +24853,7 @@
         <v>45222</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -24910,7 +24910,7 @@
         <v>45468.60724537037</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>45713.4958912037</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25024,7 +25024,7 @@
         <v>45736.58108796296</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25081,7 +25081,7 @@
         <v>44733.444375</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25138,7 +25138,7 @@
         <v>45705.37196759259</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25195,7 +25195,7 @@
         <v>44644</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25252,7 +25252,7 @@
         <v>45231</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25309,7 +25309,7 @@
         <v>45595.79767361111</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25366,7 +25366,7 @@
         <v>45679</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25423,7 +25423,7 @@
         <v>44719</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25480,7 +25480,7 @@
         <v>45016.7299537037</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25537,7 +25537,7 @@
         <v>45616.64193287037</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25594,7 +25594,7 @@
         <v>45616.64283564815</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         <v>45021.3778587963</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25708,7 +25708,7 @@
         <v>45482</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -25765,7 +25765,7 @@
         <v>45247.60436342593</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -25822,7 +25822,7 @@
         <v>45763.8155787037</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -25884,7 +25884,7 @@
         <v>45298.51369212963</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -25941,7 +25941,7 @@
         <v>45736.57563657407</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -25998,7 +25998,7 @@
         <v>44396</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26055,7 +26055,7 @@
         <v>45546.55621527778</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26112,7 +26112,7 @@
         <v>45005</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26169,7 +26169,7 @@
         <v>44757.52935185185</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         <v>45685.65405092593</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26283,7 +26283,7 @@
         <v>45168.65719907408</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26340,7 +26340,7 @@
         <v>45587.45049768518</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26397,7 +26397,7 @@
         <v>45747.42072916667</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26454,7 +26454,7 @@
         <v>44605.61115740741</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26511,7 +26511,7 @@
         <v>44300.57024305555</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26568,7 +26568,7 @@
         <v>45414.36018518519</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26625,7 +26625,7 @@
         <v>44908.62335648148</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26682,7 +26682,7 @@
         <v>45615.53488425926</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -26739,7 +26739,7 @@
         <v>44357</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -26796,7 +26796,7 @@
         <v>45728.78711805555</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -26853,7 +26853,7 @@
         <v>44740.44717592592</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -26910,7 +26910,7 @@
         <v>45713.4978125</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -26967,7 +26967,7 @@
         <v>45713.49877314815</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27024,7 +27024,7 @@
         <v>45277</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27081,7 +27081,7 @@
         <v>45793.38550925926</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27138,7 +27138,7 @@
         <v>45792.5219212963</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27195,7 +27195,7 @@
         <v>45796.44579861111</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>

--- a/Översikt HERRLJUNGA.xlsx
+++ b/Översikt HERRLJUNGA.xlsx
@@ -575,7 +575,7 @@
         <v>45072</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44546</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>45399.49349537037</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         <v>45771.63234953704</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>44876.75724537037</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>44378.55261574074</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>44417.48436342592</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>44529.49225694445</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>44525.61166666666</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
         <v>44417</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>44422.5627662037</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1333,7 +1333,7 @@
         <v>44473.51674768519</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>44497.37104166667</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>44307</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>44533</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>44496.39097222222</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1618,7 +1618,7 @@
         <v>44474</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         <v>44474.42125</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         <v>44417.41164351852</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1789,7 +1789,7 @@
         <v>44441</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>44719</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
         <v>44754.85047453704</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1960,7 +1960,7 @@
         <v>44455.40164351852</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2017,7 +2017,7 @@
         <v>44250</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2074,7 +2074,7 @@
         <v>44313</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         <v>44447.30947916667</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
         <v>44659</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         <v>44295.6893287037</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2302,7 +2302,7 @@
         <v>44790.6769212963</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2359,7 +2359,7 @@
         <v>44417.48297453704</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         <v>44452</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>44449.66033564815</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>44455.40453703704</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>44447</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>44476.61636574074</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>44313</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         <v>44496.38925925926</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2815,7 +2815,7 @@
         <v>44790.69194444444</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         <v>44601.67113425926</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2929,7 +2929,7 @@
         <v>44459</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2986,7 +2986,7 @@
         <v>44659</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         <v>44363</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3100,7 +3100,7 @@
         <v>44775.58739583333</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3157,7 +3157,7 @@
         <v>44868.60407407407</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3214,7 +3214,7 @@
         <v>44638.47898148148</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>44441.52818287037</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
         <v>44441.53571759259</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
         <v>44834.48917824074</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3442,7 +3442,7 @@
         <v>44519.36746527778</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
         <v>44502.78605324074</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         <v>44817.35599537037</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3613,7 +3613,7 @@
         <v>44305</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3670,7 +3670,7 @@
         <v>44831.58648148148</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3727,7 +3727,7 @@
         <v>44581.42015046296</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3784,7 +3784,7 @@
         <v>44838.56086805555</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>44748.42290509259</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3898,7 +3898,7 @@
         <v>44847</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         <v>44253</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4012,7 +4012,7 @@
         <v>44538.58409722222</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4069,7 +4069,7 @@
         <v>44251</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4126,7 +4126,7 @@
         <v>44421</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4183,7 +4183,7 @@
         <v>45082</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         <v>44900.43155092592</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4302,7 +4302,7 @@
         <v>44900</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4359,7 +4359,7 @@
         <v>45019.2590162037</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4416,7 +4416,7 @@
         <v>45188.80806712963</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4473,7 +4473,7 @@
         <v>44524.56443287037</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
         <v>45723.64576388889</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4587,7 +4587,7 @@
         <v>45265</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4644,7 +4644,7 @@
         <v>44419.62418981481</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4701,7 +4701,7 @@
         <v>45172</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4758,7 +4758,7 @@
         <v>45517.57243055556</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         <v>45377.36488425926</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4877,7 +4877,7 @@
         <v>45327.47517361111</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4934,7 +4934,7 @@
         <v>45603.61920138889</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         <v>45639.5506712963</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>45306.61583333334</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         <v>45721.73456018518</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         <v>45685.45357638889</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5219,7 +5219,7 @@
         <v>44566.54390046297</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5276,7 +5276,7 @@
         <v>45557</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5333,7 +5333,7 @@
         <v>45357</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         <v>45365.49547453703</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5452,7 +5452,7 @@
         <v>44854</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5509,7 +5509,7 @@
         <v>45446</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5566,7 +5566,7 @@
         <v>45705.38988425926</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5623,7 +5623,7 @@
         <v>44593</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5680,7 +5680,7 @@
         <v>45285</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5737,7 +5737,7 @@
         <v>45051.6987037037</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5794,7 +5794,7 @@
         <v>45306.61697916667</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         <v>45335.36597222222</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5908,7 +5908,7 @@
         <v>45736.57993055556</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5965,7 +5965,7 @@
         <v>44525</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6022,7 +6022,7 @@
         <v>45770.69283564815</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6079,7 +6079,7 @@
         <v>45677.57553240741</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6136,7 +6136,7 @@
         <v>45194.4964699074</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6193,7 +6193,7 @@
         <v>45273</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6250,7 +6250,7 @@
         <v>45098.71601851852</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>45724.41099537037</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         <v>44917.50943287037</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>45491</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
         <v>45085.57719907408</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
         <v>44679.53668981481</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         <v>45567.46769675926</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>45337.66972222222</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>45728.59554398148</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6763,7 +6763,7 @@
         <v>44995</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6820,7 +6820,7 @@
         <v>44295.51916666667</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6877,7 +6877,7 @@
         <v>45819.61297453703</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6934,7 +6934,7 @@
         <v>45819</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         <v>44686.65587962963</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         <v>45138.40096064815</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7105,7 +7105,7 @@
         <v>45274.60491898148</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7162,7 +7162,7 @@
         <v>45562.75159722222</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         <v>45310.35899305555</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7281,7 +7281,7 @@
         <v>44895</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7338,7 +7338,7 @@
         <v>45756</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7395,7 +7395,7 @@
         <v>45771</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7452,7 +7452,7 @@
         <v>45888</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7509,7 +7509,7 @@
         <v>45595.53736111111</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7566,7 +7566,7 @@
         <v>45317.48802083333</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7628,7 +7628,7 @@
         <v>45889.61847222222</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
         <v>45684.41334490741</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7742,7 +7742,7 @@
         <v>45737.38832175926</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7799,7 +7799,7 @@
         <v>45890.46686342593</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7861,7 +7861,7 @@
         <v>45891.33506944445</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7923,7 +7923,7 @@
         <v>45890.55415509259</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7980,7 +7980,7 @@
         <v>45736.60548611111</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8037,7 +8037,7 @@
         <v>45743.38391203704</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8094,7 +8094,7 @@
         <v>45726.60582175926</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8151,7 +8151,7 @@
         <v>45728.45510416666</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8208,7 +8208,7 @@
         <v>45728.45725694444</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>45476.72542824074</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8322,7 +8322,7 @@
         <v>45890.47210648148</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8384,7 +8384,7 @@
         <v>45827.37181712963</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8441,7 +8441,7 @@
         <v>45890</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8498,7 +8498,7 @@
         <v>45827.35715277777</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8555,7 +8555,7 @@
         <v>45736.60425925926</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8612,7 +8612,7 @@
         <v>45728.64533564815</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8669,7 +8669,7 @@
         <v>45733.36819444445</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         <v>45894.47168981482</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8788,7 +8788,7 @@
         <v>45897.64601851852</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8845,7 +8845,7 @@
         <v>45897.65413194444</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8902,7 +8902,7 @@
         <v>45897.65601851852</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8959,7 +8959,7 @@
         <v>45897.65775462963</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9016,7 +9016,7 @@
         <v>45897.49462962963</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9073,7 +9073,7 @@
         <v>45897.64824074074</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9130,7 +9130,7 @@
         <v>45897.64988425926</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9187,7 +9187,7 @@
         <v>45897.65219907407</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9244,7 +9244,7 @@
         <v>45896.68271990741</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9301,7 +9301,7 @@
         <v>45833.3154050926</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
         <v>45373</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9415,7 +9415,7 @@
         <v>45005.37168981481</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9472,7 +9472,7 @@
         <v>44790</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9529,7 +9529,7 @@
         <v>45833.32037037037</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9586,7 +9586,7 @@
         <v>45834.64103009259</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9643,7 +9643,7 @@
         <v>44958.48936342593</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9700,7 +9700,7 @@
         <v>45835.61480324074</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9757,7 +9757,7 @@
         <v>45834.41769675926</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9814,7 +9814,7 @@
         <v>44942.38057870371</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9871,7 +9871,7 @@
         <v>45838.32111111111</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9928,7 +9928,7 @@
         <v>45155.54638888889</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9985,7 +9985,7 @@
         <v>45155.55584490741</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10042,7 +10042,7 @@
         <v>45908.3166087963</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10099,7 +10099,7 @@
         <v>45841</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10156,7 +10156,7 @@
         <v>45212.49534722222</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10213,7 +10213,7 @@
         <v>45350.58181712963</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10270,7 +10270,7 @@
         <v>45841</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10327,7 +10327,7 @@
         <v>44847</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10389,7 +10389,7 @@
         <v>45177.67642361111</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10446,7 +10446,7 @@
         <v>45614.63621527778</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10503,7 +10503,7 @@
         <v>45614.64042824074</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10560,7 +10560,7 @@
         <v>44533.39519675926</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10617,7 +10617,7 @@
         <v>45916.67724537037</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10679,7 +10679,7 @@
         <v>45916.48246527778</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10736,7 +10736,7 @@
         <v>45176.32940972222</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10793,7 +10793,7 @@
         <v>45916.49414351852</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10850,7 +10850,7 @@
         <v>45615.37197916667</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10907,7 +10907,7 @@
         <v>45763.80842592593</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
         <v>45918.66608796296</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11026,7 +11026,7 @@
         <v>45581.35340277778</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11083,7 +11083,7 @@
         <v>45159</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11140,7 +11140,7 @@
         <v>45919.38120370371</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11197,7 +11197,7 @@
         <v>45660.50104166667</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11254,7 +11254,7 @@
         <v>45030.39709490741</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11311,7 +11311,7 @@
         <v>45678.58040509259</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11368,7 +11368,7 @@
         <v>45922.33628472222</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11425,7 +11425,7 @@
         <v>45922.85010416667</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11482,7 +11482,7 @@
         <v>45922.85353009259</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         <v>45859.47175925926</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11596,7 +11596,7 @@
         <v>45922.85178240741</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11653,7 +11653,7 @@
         <v>45582.65775462963</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11710,7 +11710,7 @@
         <v>45925.71373842593</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11767,7 +11767,7 @@
         <v>44914.28622685185</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11824,7 +11824,7 @@
         <v>45092</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11881,7 +11881,7 @@
         <v>44860.6234375</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11938,7 +11938,7 @@
         <v>44980.34190972222</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11995,7 +11995,7 @@
         <v>44904</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12057,7 +12057,7 @@
         <v>45926.46318287037</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12114,7 +12114,7 @@
         <v>45873.73810185185</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12171,7 +12171,7 @@
         <v>45679</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12228,7 +12228,7 @@
         <v>45929.70454861111</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12285,7 +12285,7 @@
         <v>45873.73373842592</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12342,7 +12342,7 @@
         <v>44700.61409722222</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12399,7 +12399,7 @@
         <v>45099.60644675926</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12456,7 +12456,7 @@
         <v>45335.57622685185</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12513,7 +12513,7 @@
         <v>45875.46065972222</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12570,7 +12570,7 @@
         <v>45875.46194444445</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12627,7 +12627,7 @@
         <v>45931.66099537037</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12684,7 +12684,7 @@
         <v>45875.49515046296</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12741,7 +12741,7 @@
         <v>45933.66127314815</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12798,7 +12798,7 @@
         <v>45266</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12855,7 +12855,7 @@
         <v>45876.43549768518</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12912,7 +12912,7 @@
         <v>45214.8296875</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12969,7 +12969,7 @@
         <v>45664.40298611111</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13031,7 +13031,7 @@
         <v>45772.66884259259</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13088,7 +13088,7 @@
         <v>45587.70663194444</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13150,7 +13150,7 @@
         <v>45587.74337962963</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13212,7 +13212,7 @@
         <v>45839.46179398148</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13269,7 +13269,7 @@
         <v>45705.42427083333</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13326,7 +13326,7 @@
         <v>44890.66952546296</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13383,7 +13383,7 @@
         <v>45938.52655092593</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13440,7 +13440,7 @@
         <v>45883.40136574074</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13497,7 +13497,7 @@
         <v>45155.55261574074</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13554,7 +13554,7 @@
         <v>45702.55307870371</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13611,7 +13611,7 @@
         <v>45578.74212962963</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13668,7 +13668,7 @@
         <v>45546.47134259259</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13725,7 +13725,7 @@
         <v>45546.47361111111</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13782,7 +13782,7 @@
         <v>45267.43561342593</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13839,7 +13839,7 @@
         <v>45267</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13896,7 +13896,7 @@
         <v>45728.64429398148</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13953,7 +13953,7 @@
         <v>44305</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14010,7 +14010,7 @@
         <v>45172</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14067,7 +14067,7 @@
         <v>44474.35072916667</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14124,7 +14124,7 @@
         <v>45947.57024305555</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14181,7 +14181,7 @@
         <v>44995</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14238,7 +14238,7 @@
         <v>44847.43722222222</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14300,7 +14300,7 @@
         <v>44977.31903935185</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14357,7 +14357,7 @@
         <v>45947.57166666666</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14414,7 +14414,7 @@
         <v>45567.60662037037</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14471,7 +14471,7 @@
         <v>45587.43553240741</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14528,7 +14528,7 @@
         <v>45950.36163194444</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14585,7 +14585,7 @@
         <v>45950.36862268519</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14642,7 +14642,7 @@
         <v>45321.57921296296</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14699,7 +14699,7 @@
         <v>45265.65109953703</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14756,7 +14756,7 @@
         <v>45950.36725694445</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14813,7 +14813,7 @@
         <v>45084.85409722223</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14870,7 +14870,7 @@
         <v>44882</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14927,7 +14927,7 @@
         <v>45952.55898148148</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -14984,7 +14984,7 @@
         <v>45952.5709375</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15041,7 +15041,7 @@
         <v>45327.49081018518</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15098,7 +15098,7 @@
         <v>45952.56828703704</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15155,7 +15155,7 @@
         <v>45952.60252314815</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15212,7 +15212,7 @@
         <v>45957.60668981481</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15269,7 +15269,7 @@
         <v>45621.52608796296</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15326,7 +15326,7 @@
         <v>45957.6135300926</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15383,7 +15383,7 @@
         <v>45957</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15440,7 +15440,7 @@
         <v>45643.63238425926</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15497,7 +15497,7 @@
         <v>44295.51916666667</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15554,7 +15554,7 @@
         <v>45959</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15611,7 +15611,7 @@
         <v>45960.61454861111</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15668,7 +15668,7 @@
         <v>44942.38228009259</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15725,7 +15725,7 @@
         <v>45153.60082175926</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15782,7 +15782,7 @@
         <v>45964.56824074074</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15839,7 +15839,7 @@
         <v>44686.65185185185</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15896,7 +15896,7 @@
         <v>45618.70145833334</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -15953,7 +15953,7 @@
         <v>45315.40715277778</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16010,7 +16010,7 @@
         <v>44950.83806712963</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16067,7 +16067,7 @@
         <v>45966.64700231481</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16124,7 +16124,7 @@
         <v>45966.64835648148</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16181,7 +16181,7 @@
         <v>45974.75811342592</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>45978.56829861111</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         <v>45705.78310185186</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16352,7 +16352,7 @@
         <v>45980.32965277778</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16409,7 +16409,7 @@
         <v>45425.42435185185</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         <v>45985.37597222222</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16523,7 +16523,7 @@
         <v>45707.23298611111</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16580,7 +16580,7 @@
         <v>45985.36587962963</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>45138.39662037037</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         <v>45985.36349537037</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>45986.63912037037</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16808,7 +16808,7 @@
         <v>45986.84456018519</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>45433</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -16922,7 +16922,7 @@
         <v>45678.67545138889</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -16979,7 +16979,7 @@
         <v>44256</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17036,7 +17036,7 @@
         <v>45453.82998842592</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>45986.63512731482</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
         <v>45986.64166666667</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17207,7 +17207,7 @@
         <v>46029</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17269,7 +17269,7 @@
         <v>45107.91672453703</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17326,7 +17326,7 @@
         <v>46029</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>45989.46027777778</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17450,7 +17450,7 @@
         <v>44380</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17507,7 +17507,7 @@
         <v>45989.66394675926</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17569,7 +17569,7 @@
         <v>45993.60032407408</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17626,7 +17626,7 @@
         <v>45708.36219907407</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17683,7 +17683,7 @@
         <v>45639.54719907408</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17740,7 +17740,7 @@
         <v>45153.56390046296</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17797,7 +17797,7 @@
         <v>45163</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>45480.63773148148</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>45614.64645833334</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -17968,7 +17968,7 @@
         <v>45614.65366898148</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18025,7 +18025,7 @@
         <v>46035.55513888889</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>46036.67758101852</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>45303.53072916667</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>45303.59265046296</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>44984.78379629629</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18310,7 +18310,7 @@
         <v>45086.47355324074</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18367,7 +18367,7 @@
         <v>44904</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18429,7 +18429,7 @@
         <v>46036.52319444445</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18486,7 +18486,7 @@
         <v>44524.56353009259</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18543,7 +18543,7 @@
         <v>44900.43481481481</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18600,7 +18600,7 @@
         <v>44313.89017361111</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18657,7 +18657,7 @@
         <v>45996.31261574074</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18719,7 +18719,7 @@
         <v>44659</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18776,7 +18776,7 @@
         <v>46000</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18833,7 +18833,7 @@
         <v>46043</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -18890,7 +18890,7 @@
         <v>46000</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -18947,7 +18947,7 @@
         <v>45526.52795138889</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         <v>46043.339375</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19061,7 +19061,7 @@
         <v>45303.57658564814</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19118,7 +19118,7 @@
         <v>45622.57908564815</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19175,7 +19175,7 @@
         <v>45624.7383912037</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19232,7 +19232,7 @@
         <v>45723.64722222222</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19289,7 +19289,7 @@
         <v>45101.80099537037</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         <v>45337.68260416666</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19403,7 +19403,7 @@
         <v>44866</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19460,7 +19460,7 @@
         <v>45149.65513888889</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19517,7 +19517,7 @@
         <v>46006.43011574074</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19579,7 +19579,7 @@
         <v>45082</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19641,7 +19641,7 @@
         <v>45009.505625</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19698,7 +19698,7 @@
         <v>46048.39719907408</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19755,7 +19755,7 @@
         <v>45196</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19812,7 +19812,7 @@
         <v>44917.51072916666</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -19869,7 +19869,7 @@
         <v>46050.49346064815</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -19926,7 +19926,7 @@
         <v>45742.43068287037</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>45005.33422453704</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20040,7 +20040,7 @@
         <v>45072</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20122,7 +20122,7 @@
         <v>45271.49912037037</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         <v>46013</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20236,7 +20236,7 @@
         <v>45021</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>46013</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>45446</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20407,7 +20407,7 @@
         <v>44511.61333333333</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20464,7 +20464,7 @@
         <v>44918.46096064815</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20521,7 +20521,7 @@
         <v>45583.47204861111</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20578,7 +20578,7 @@
         <v>45705.36880787037</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20635,7 +20635,7 @@
         <v>45700.77680555556</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20692,7 +20692,7 @@
         <v>46044</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20749,7 +20749,7 @@
         <v>46043.85776620371</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -20806,7 +20806,7 @@
         <v>44917.51208333333</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
         <v>44574</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -20920,7 +20920,7 @@
         <v>45771.53150462963</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -20977,7 +20977,7 @@
         <v>45771.53564814815</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21034,7 +21034,7 @@
         <v>45771.54677083333</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21091,7 +21091,7 @@
         <v>45277.77255787037</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21148,7 +21148,7 @@
         <v>44380</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21205,7 +21205,7 @@
         <v>45763.67412037037</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21262,7 +21262,7 @@
         <v>45772.66784722222</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21319,7 +21319,7 @@
         <v>45756.49090277778</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21376,7 +21376,7 @@
         <v>45565.55225694444</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21433,7 +21433,7 @@
         <v>46064.57457175926</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21490,7 +21490,7 @@
         <v>46064.36384259259</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         <v>44952.54989583333</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21604,7 +21604,7 @@
         <v>44665.67701388889</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21661,7 +21661,7 @@
         <v>45400.51723379629</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21718,7 +21718,7 @@
         <v>45527.48158564815</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21775,7 +21775,7 @@
         <v>45233.64104166667</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -21832,7 +21832,7 @@
         <v>44691</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -21889,7 +21889,7 @@
         <v>44459</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -21946,7 +21946,7 @@
         <v>46071.53856481481</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22003,7 +22003,7 @@
         <v>46071.54019675926</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22060,7 +22060,7 @@
         <v>45614.6421875</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22117,7 +22117,7 @@
         <v>46070.46819444445</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22174,7 +22174,7 @@
         <v>46072.33856481482</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22231,7 +22231,7 @@
         <v>46031</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22288,7 +22288,7 @@
         <v>46031</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22345,7 +22345,7 @@
         <v>46031</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22402,7 +22402,7 @@
         <v>46031</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22459,7 +22459,7 @@
         <v>45077</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22516,7 +22516,7 @@
         <v>44893.40965277778</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22573,7 +22573,7 @@
         <v>45373.65864583333</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22630,7 +22630,7 @@
         <v>46031.43129629629</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22687,7 +22687,7 @@
         <v>45280.37271990741</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22744,7 +22744,7 @@
         <v>46031</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -22801,7 +22801,7 @@
         <v>46073.46758101852</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -22858,7 +22858,7 @@
         <v>46031.33475694444</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -22915,7 +22915,7 @@
         <v>46031</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -22972,7 +22972,7 @@
         <v>46073.34045138889</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23029,7 +23029,7 @@
         <v>45614.48202546296</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23086,7 +23086,7 @@
         <v>45189.9100925926</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23143,7 +23143,7 @@
         <v>45236.67905092592</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23200,7 +23200,7 @@
         <v>44811</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23257,7 +23257,7 @@
         <v>45327</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23314,7 +23314,7 @@
         <v>44551.40778935186</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23371,7 +23371,7 @@
         <v>45265.65418981481</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23428,7 +23428,7 @@
         <v>45211.72998842593</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23485,7 +23485,7 @@
         <v>44638.47725694445</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23542,7 +23542,7 @@
         <v>45763.66309027778</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23599,7 +23599,7 @@
         <v>45763.68108796296</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23656,7 +23656,7 @@
         <v>45009.50658564815</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23713,7 +23713,7 @@
         <v>45160.75662037037</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -23770,7 +23770,7 @@
         <v>44867.368125</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -23827,7 +23827,7 @@
         <v>45760.88792824074</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -23884,7 +23884,7 @@
         <v>45303.53243055556</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -23941,7 +23941,7 @@
         <v>45219.48835648148</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -23998,7 +23998,7 @@
         <v>45526.53488425926</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24055,7 +24055,7 @@
         <v>45266</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24112,7 +24112,7 @@
         <v>44890.66738425926</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24169,7 +24169,7 @@
         <v>45222</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         <v>45468.60724537037</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         <v>45713.4958912037</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24340,7 +24340,7 @@
         <v>45736.58108796296</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24397,7 +24397,7 @@
         <v>44733.444375</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24454,7 +24454,7 @@
         <v>45705.37196759259</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24511,7 +24511,7 @@
         <v>44644</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24568,7 +24568,7 @@
         <v>45231</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24625,7 +24625,7 @@
         <v>45595.79767361111</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24682,7 +24682,7 @@
         <v>45679</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -24739,7 +24739,7 @@
         <v>44719</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -24796,7 +24796,7 @@
         <v>45016.7299537037</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -24853,7 +24853,7 @@
         <v>45616.64193287037</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -24910,7 +24910,7 @@
         <v>45616.64283564815</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>45021.3778587963</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25024,7 +25024,7 @@
         <v>45482</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25081,7 +25081,7 @@
         <v>45247.60436342593</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25138,7 +25138,7 @@
         <v>45763.8155787037</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25200,7 +25200,7 @@
         <v>45298.51369212963</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25257,7 +25257,7 @@
         <v>45736.57563657407</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25314,7 +25314,7 @@
         <v>44396</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25371,7 +25371,7 @@
         <v>45546.55621527778</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25428,7 +25428,7 @@
         <v>45005</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25485,7 +25485,7 @@
         <v>44757.52935185185</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25542,7 +25542,7 @@
         <v>45685.65405092593</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25599,7 +25599,7 @@
         <v>45168.65719907408</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25656,7 +25656,7 @@
         <v>45587.45049768518</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25713,7 +25713,7 @@
         <v>45747.42072916667</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -25770,7 +25770,7 @@
         <v>44605.61115740741</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -25827,7 +25827,7 @@
         <v>44300.57024305555</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -25884,7 +25884,7 @@
         <v>45414.36018518519</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -25941,7 +25941,7 @@
         <v>44908.62335648148</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -25998,7 +25998,7 @@
         <v>45615.53488425926</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26055,7 +26055,7 @@
         <v>44357</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26112,7 +26112,7 @@
         <v>45728.78711805555</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26169,7 +26169,7 @@
         <v>44740.44717592592</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         <v>45713.4978125</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26283,7 +26283,7 @@
         <v>45713.49877314815</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26340,7 +26340,7 @@
         <v>45277</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26397,7 +26397,7 @@
         <v>45793.38550925926</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26454,7 +26454,7 @@
         <v>45792.5219212963</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26511,7 +26511,7 @@
         <v>45796.44579861111</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26568,7 +26568,7 @@
         <v>45798.52034722222</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26625,7 +26625,7 @@
         <v>45803.35596064815</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26682,7 +26682,7 @@
         <v>45803.35204861111</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -26739,7 +26739,7 @@
         <v>45803.3384375</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -26796,7 +26796,7 @@
         <v>45803.35353009259</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -26853,7 +26853,7 @@
         <v>45805.4690625</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -26910,7 +26910,7 @@
         <v>45511.48479166667</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -26967,7 +26967,7 @@
         <v>45810.65199074074</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27024,7 +27024,7 @@
         <v>45548.40048611111</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27081,7 +27081,7 @@
         <v>45811.33570601852</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27138,7 +27138,7 @@
         <v>45418</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27195,7 +27195,7 @@
         <v>45345.40760416666</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27252,7 +27252,7 @@
         <v>45267.45653935185</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>

--- a/Översikt HERRLJUNGA.xlsx
+++ b/Översikt HERRLJUNGA.xlsx
@@ -575,7 +575,7 @@
         <v>45072</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44546</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>45399.49349537037</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         <v>45771.63234953704</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>44876.75724537037</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>44378.55261574074</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>44417.48436342592</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>44529.49225694445</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>44525.61166666666</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
         <v>44417</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>44422.5627662037</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1333,7 +1333,7 @@
         <v>44473.51674768519</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>44497.37104166667</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>44307</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>44533</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>44496.39097222222</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1618,7 +1618,7 @@
         <v>44474</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         <v>44474.42125</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         <v>44417.41164351852</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1789,7 +1789,7 @@
         <v>44441</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>44719</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
         <v>44754.85047453704</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1960,7 +1960,7 @@
         <v>44455.40164351852</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2017,7 +2017,7 @@
         <v>44250</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2074,7 +2074,7 @@
         <v>44313</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         <v>44447.30947916667</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
         <v>44659</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         <v>44295.6893287037</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2302,7 +2302,7 @@
         <v>44790.6769212963</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2359,7 +2359,7 @@
         <v>44417.48297453704</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         <v>44452</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>44449.66033564815</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>44455.40453703704</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>44447</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>44476.61636574074</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>44313</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         <v>44496.38925925926</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2815,7 +2815,7 @@
         <v>44790.69194444444</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         <v>44601.67113425926</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2929,7 +2929,7 @@
         <v>44459</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2986,7 +2986,7 @@
         <v>44659</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         <v>44363</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3100,7 +3100,7 @@
         <v>44775.58739583333</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3157,7 +3157,7 @@
         <v>44868.60407407407</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3214,7 +3214,7 @@
         <v>44638.47898148148</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>44441.52818287037</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
         <v>44441.53571759259</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
         <v>44834.48917824074</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3442,7 +3442,7 @@
         <v>44519.36746527778</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
         <v>44502.78605324074</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         <v>44817.35599537037</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3613,7 +3613,7 @@
         <v>44305</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3670,7 +3670,7 @@
         <v>44831.58648148148</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3727,7 +3727,7 @@
         <v>44581.42015046296</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3784,7 +3784,7 @@
         <v>44838.56086805555</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>44748.42290509259</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3898,7 +3898,7 @@
         <v>44847</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         <v>44253</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4012,7 +4012,7 @@
         <v>44538.58409722222</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4069,7 +4069,7 @@
         <v>44251</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4126,7 +4126,7 @@
         <v>44421</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4183,7 +4183,7 @@
         <v>45082</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         <v>44900.43155092592</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4302,7 +4302,7 @@
         <v>44900</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4359,7 +4359,7 @@
         <v>45019.2590162037</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4416,7 +4416,7 @@
         <v>45188.80806712963</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4473,7 +4473,7 @@
         <v>44524.56443287037</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
         <v>45723.64576388889</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4587,7 +4587,7 @@
         <v>45265</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4644,7 +4644,7 @@
         <v>44419.62418981481</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4701,7 +4701,7 @@
         <v>45172</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4758,7 +4758,7 @@
         <v>45517.57243055556</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         <v>45377.36488425926</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4877,7 +4877,7 @@
         <v>45327.47517361111</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4934,7 +4934,7 @@
         <v>45603.61920138889</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         <v>45639.5506712963</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>45306.61583333334</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         <v>45721.73456018518</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         <v>45685.45357638889</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5219,7 +5219,7 @@
         <v>44566.54390046297</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5276,7 +5276,7 @@
         <v>45557</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5333,7 +5333,7 @@
         <v>45357</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         <v>45365.49547453703</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5452,7 +5452,7 @@
         <v>44854</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5509,7 +5509,7 @@
         <v>45446</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5566,7 +5566,7 @@
         <v>45705.38988425926</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5623,7 +5623,7 @@
         <v>44593</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5680,7 +5680,7 @@
         <v>45285</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5737,7 +5737,7 @@
         <v>45051.6987037037</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5794,7 +5794,7 @@
         <v>45306.61697916667</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         <v>45335.36597222222</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5908,7 +5908,7 @@
         <v>45736.57993055556</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5965,7 +5965,7 @@
         <v>44525</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6022,7 +6022,7 @@
         <v>45770.69283564815</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6079,7 +6079,7 @@
         <v>45677.57553240741</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6136,7 +6136,7 @@
         <v>45194.4964699074</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6193,7 +6193,7 @@
         <v>45273</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6250,7 +6250,7 @@
         <v>45098.71601851852</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>45724.41099537037</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         <v>44917.50943287037</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>45491</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
         <v>45085.57719907408</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
         <v>44679.53668981481</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         <v>45567.46769675926</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>45337.66972222222</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>45728.59554398148</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6763,7 +6763,7 @@
         <v>44995</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6820,7 +6820,7 @@
         <v>44295.51916666667</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6877,7 +6877,7 @@
         <v>45819.61297453703</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6934,7 +6934,7 @@
         <v>45819</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         <v>44686.65587962963</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         <v>45138.40096064815</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7105,7 +7105,7 @@
         <v>45274.60491898148</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7162,7 +7162,7 @@
         <v>45562.75159722222</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         <v>45310.35899305555</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7281,7 +7281,7 @@
         <v>44895</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7338,7 +7338,7 @@
         <v>45756</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7395,7 +7395,7 @@
         <v>45771</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7452,7 +7452,7 @@
         <v>45888</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7509,7 +7509,7 @@
         <v>45595.53736111111</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7566,7 +7566,7 @@
         <v>45317.48802083333</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7628,7 +7628,7 @@
         <v>45889.61847222222</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
         <v>45684.41334490741</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7742,7 +7742,7 @@
         <v>45737.38832175926</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7799,7 +7799,7 @@
         <v>45890.46686342593</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7861,7 +7861,7 @@
         <v>45891.33506944445</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7923,7 +7923,7 @@
         <v>45890.55415509259</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7980,7 +7980,7 @@
         <v>45736.60548611111</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8037,7 +8037,7 @@
         <v>45743.38391203704</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8094,7 +8094,7 @@
         <v>45726.60582175926</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8151,7 +8151,7 @@
         <v>45728.45510416666</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8208,7 +8208,7 @@
         <v>45728.45725694444</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>45476.72542824074</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8322,7 +8322,7 @@
         <v>45890.47210648148</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8384,7 +8384,7 @@
         <v>45827.37181712963</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8441,7 +8441,7 @@
         <v>45890</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8498,7 +8498,7 @@
         <v>45827.35715277777</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8555,7 +8555,7 @@
         <v>45736.60425925926</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8612,7 +8612,7 @@
         <v>45728.64533564815</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8669,7 +8669,7 @@
         <v>45733.36819444445</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         <v>45894.47168981482</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8788,7 +8788,7 @@
         <v>45897.64601851852</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8845,7 +8845,7 @@
         <v>45897.65413194444</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8902,7 +8902,7 @@
         <v>45897.65601851852</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8959,7 +8959,7 @@
         <v>45897.65775462963</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9016,7 +9016,7 @@
         <v>45897.49462962963</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9073,7 +9073,7 @@
         <v>45897.64824074074</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9130,7 +9130,7 @@
         <v>45897.64988425926</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9187,7 +9187,7 @@
         <v>45897.65219907407</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9244,7 +9244,7 @@
         <v>45896.68271990741</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9301,7 +9301,7 @@
         <v>45833.3154050926</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
         <v>45373</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9415,7 +9415,7 @@
         <v>45005.37168981481</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9472,7 +9472,7 @@
         <v>44790</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9529,7 +9529,7 @@
         <v>45833.32037037037</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9586,7 +9586,7 @@
         <v>45834.64103009259</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9643,7 +9643,7 @@
         <v>44958.48936342593</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9700,7 +9700,7 @@
         <v>45835.61480324074</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9757,7 +9757,7 @@
         <v>45834.41769675926</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9814,7 +9814,7 @@
         <v>44942.38057870371</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9871,7 +9871,7 @@
         <v>45838.32111111111</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9928,7 +9928,7 @@
         <v>45155.54638888889</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9985,7 +9985,7 @@
         <v>45155.55584490741</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10042,7 +10042,7 @@
         <v>45908.3166087963</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10099,7 +10099,7 @@
         <v>45841</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10156,7 +10156,7 @@
         <v>45212.49534722222</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10213,7 +10213,7 @@
         <v>45350.58181712963</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10270,7 +10270,7 @@
         <v>45841</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10327,7 +10327,7 @@
         <v>44847</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10389,7 +10389,7 @@
         <v>45177.67642361111</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10446,7 +10446,7 @@
         <v>45614.63621527778</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10503,7 +10503,7 @@
         <v>45614.64042824074</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10560,7 +10560,7 @@
         <v>44533.39519675926</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10617,7 +10617,7 @@
         <v>45916.67724537037</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10679,7 +10679,7 @@
         <v>45916.48246527778</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10736,7 +10736,7 @@
         <v>45176.32940972222</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10793,7 +10793,7 @@
         <v>45916.49414351852</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10850,7 +10850,7 @@
         <v>45615.37197916667</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10907,7 +10907,7 @@
         <v>45763.80842592593</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
         <v>45918.66608796296</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11026,7 +11026,7 @@
         <v>45581.35340277778</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11083,7 +11083,7 @@
         <v>45159</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11140,7 +11140,7 @@
         <v>45919.38120370371</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11197,7 +11197,7 @@
         <v>45660.50104166667</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11254,7 +11254,7 @@
         <v>45030.39709490741</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11311,7 +11311,7 @@
         <v>45678.58040509259</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11368,7 +11368,7 @@
         <v>45922.33628472222</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11425,7 +11425,7 @@
         <v>45922.85010416667</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11482,7 +11482,7 @@
         <v>45922.85353009259</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         <v>45859.47175925926</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11596,7 +11596,7 @@
         <v>45922.85178240741</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11653,7 +11653,7 @@
         <v>45582.65775462963</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11710,7 +11710,7 @@
         <v>45925.71373842593</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11767,7 +11767,7 @@
         <v>44914.28622685185</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11824,7 +11824,7 @@
         <v>45092</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11881,7 +11881,7 @@
         <v>44860.6234375</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11938,7 +11938,7 @@
         <v>44980.34190972222</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11995,7 +11995,7 @@
         <v>44904</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12057,7 +12057,7 @@
         <v>45926.46318287037</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12114,7 +12114,7 @@
         <v>45873.73810185185</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12171,7 +12171,7 @@
         <v>45679</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12228,7 +12228,7 @@
         <v>45929.70454861111</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12285,7 +12285,7 @@
         <v>45873.73373842592</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12342,7 +12342,7 @@
         <v>44700.61409722222</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12399,7 +12399,7 @@
         <v>45099.60644675926</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12456,7 +12456,7 @@
         <v>45335.57622685185</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12513,7 +12513,7 @@
         <v>45875.46065972222</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12570,7 +12570,7 @@
         <v>45875.46194444445</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12627,7 +12627,7 @@
         <v>45931.66099537037</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12684,7 +12684,7 @@
         <v>45875.49515046296</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12741,7 +12741,7 @@
         <v>45933.66127314815</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12798,7 +12798,7 @@
         <v>45266</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12855,7 +12855,7 @@
         <v>45876.43549768518</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12912,7 +12912,7 @@
         <v>45214.8296875</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12969,7 +12969,7 @@
         <v>45664.40298611111</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13031,7 +13031,7 @@
         <v>45772.66884259259</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13088,7 +13088,7 @@
         <v>45587.70663194444</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13150,7 +13150,7 @@
         <v>45587.74337962963</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13212,7 +13212,7 @@
         <v>45839.46179398148</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13269,7 +13269,7 @@
         <v>45705.42427083333</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13326,7 +13326,7 @@
         <v>44890.66952546296</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13383,7 +13383,7 @@
         <v>45938.52655092593</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13440,7 +13440,7 @@
         <v>45883.40136574074</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13497,7 +13497,7 @@
         <v>45155.55261574074</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13554,7 +13554,7 @@
         <v>45702.55307870371</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13611,7 +13611,7 @@
         <v>45578.74212962963</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13668,7 +13668,7 @@
         <v>45546.47134259259</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13725,7 +13725,7 @@
         <v>45546.47361111111</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13782,7 +13782,7 @@
         <v>45267.43561342593</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13839,7 +13839,7 @@
         <v>45267</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13896,7 +13896,7 @@
         <v>45728.64429398148</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13953,7 +13953,7 @@
         <v>44305</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14010,7 +14010,7 @@
         <v>45172</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14067,7 +14067,7 @@
         <v>44474.35072916667</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14124,7 +14124,7 @@
         <v>45947.57024305555</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14181,7 +14181,7 @@
         <v>44995</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14238,7 +14238,7 @@
         <v>44847.43722222222</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14300,7 +14300,7 @@
         <v>44977.31903935185</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14357,7 +14357,7 @@
         <v>45947.57166666666</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14414,7 +14414,7 @@
         <v>45567.60662037037</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14471,7 +14471,7 @@
         <v>45587.43553240741</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14528,7 +14528,7 @@
         <v>45950.36163194444</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14585,7 +14585,7 @@
         <v>45950.36862268519</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14642,7 +14642,7 @@
         <v>45321.57921296296</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14699,7 +14699,7 @@
         <v>45265.65109953703</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14756,7 +14756,7 @@
         <v>45950.36725694445</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14813,7 +14813,7 @@
         <v>45084.85409722223</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14870,7 +14870,7 @@
         <v>44882</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14927,7 +14927,7 @@
         <v>45952.55898148148</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -14984,7 +14984,7 @@
         <v>45952.5709375</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15041,7 +15041,7 @@
         <v>45327.49081018518</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15098,7 +15098,7 @@
         <v>45952.56828703704</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15155,7 +15155,7 @@
         <v>45952.60252314815</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15212,7 +15212,7 @@
         <v>45957.60668981481</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15269,7 +15269,7 @@
         <v>45621.52608796296</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15326,7 +15326,7 @@
         <v>45957.6135300926</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15383,7 +15383,7 @@
         <v>45957</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15440,7 +15440,7 @@
         <v>45643.63238425926</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15497,7 +15497,7 @@
         <v>44295.51916666667</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15554,7 +15554,7 @@
         <v>45959</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15611,7 +15611,7 @@
         <v>45960.61454861111</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15668,7 +15668,7 @@
         <v>44942.38228009259</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15725,7 +15725,7 @@
         <v>45153.60082175926</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15782,7 +15782,7 @@
         <v>45964.56824074074</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15839,7 +15839,7 @@
         <v>44686.65185185185</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15896,7 +15896,7 @@
         <v>45618.70145833334</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -15953,7 +15953,7 @@
         <v>45315.40715277778</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16010,7 +16010,7 @@
         <v>44950.83806712963</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16067,7 +16067,7 @@
         <v>45966.64700231481</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16124,7 +16124,7 @@
         <v>45966.64835648148</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16181,7 +16181,7 @@
         <v>45974.75811342592</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>45978.56829861111</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         <v>45705.78310185186</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16352,7 +16352,7 @@
         <v>45980.32965277778</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16409,7 +16409,7 @@
         <v>45425.42435185185</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         <v>45985.37597222222</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16523,7 +16523,7 @@
         <v>45707.23298611111</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16580,7 +16580,7 @@
         <v>45985.36587962963</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>45138.39662037037</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         <v>45985.36349537037</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>45986.63912037037</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16808,7 +16808,7 @@
         <v>45986.84456018519</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>45433</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -16922,7 +16922,7 @@
         <v>45678.67545138889</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -16979,7 +16979,7 @@
         <v>44256</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17036,7 +17036,7 @@
         <v>45453.82998842592</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>45986.63512731482</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
         <v>45986.64166666667</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17207,7 +17207,7 @@
         <v>46029</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17269,7 +17269,7 @@
         <v>45107.91672453703</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17326,7 +17326,7 @@
         <v>46029</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>45989.46027777778</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17450,7 +17450,7 @@
         <v>44380</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17507,7 +17507,7 @@
         <v>45989.66394675926</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17569,7 +17569,7 @@
         <v>45993.60032407408</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17626,7 +17626,7 @@
         <v>45708.36219907407</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17683,7 +17683,7 @@
         <v>45639.54719907408</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17740,7 +17740,7 @@
         <v>45153.56390046296</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17797,7 +17797,7 @@
         <v>45163</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>45480.63773148148</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>45614.64645833334</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -17968,7 +17968,7 @@
         <v>45614.65366898148</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18025,7 +18025,7 @@
         <v>46035.55513888889</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>46036.67758101852</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>45303.53072916667</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>45303.59265046296</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>44984.78379629629</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18310,7 +18310,7 @@
         <v>45086.47355324074</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18367,7 +18367,7 @@
         <v>44904</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18429,7 +18429,7 @@
         <v>46036.52319444445</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18486,7 +18486,7 @@
         <v>44524.56353009259</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18543,7 +18543,7 @@
         <v>44900.43481481481</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18600,7 +18600,7 @@
         <v>44313.89017361111</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18657,7 +18657,7 @@
         <v>45996.31261574074</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18719,7 +18719,7 @@
         <v>44659</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18776,7 +18776,7 @@
         <v>46000</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18833,7 +18833,7 @@
         <v>46043</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -18890,7 +18890,7 @@
         <v>46000</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -18947,7 +18947,7 @@
         <v>45526.52795138889</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         <v>46043.339375</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19061,7 +19061,7 @@
         <v>45303.57658564814</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19118,7 +19118,7 @@
         <v>45622.57908564815</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19175,7 +19175,7 @@
         <v>45624.7383912037</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19232,7 +19232,7 @@
         <v>45723.64722222222</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19289,7 +19289,7 @@
         <v>45101.80099537037</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         <v>45337.68260416666</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19403,7 +19403,7 @@
         <v>44866</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19460,7 +19460,7 @@
         <v>45149.65513888889</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19517,7 +19517,7 @@
         <v>46006.43011574074</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19579,7 +19579,7 @@
         <v>45082</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19641,7 +19641,7 @@
         <v>45009.505625</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19698,7 +19698,7 @@
         <v>46048.39719907408</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19755,7 +19755,7 @@
         <v>45196</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19812,7 +19812,7 @@
         <v>44917.51072916666</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -19869,7 +19869,7 @@
         <v>46050.49346064815</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -19926,7 +19926,7 @@
         <v>45742.43068287037</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>45005.33422453704</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20040,7 +20040,7 @@
         <v>45072</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20122,7 +20122,7 @@
         <v>45271.49912037037</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         <v>46013</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20236,7 +20236,7 @@
         <v>45021</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>46013</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>45446</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20407,7 +20407,7 @@
         <v>44511.61333333333</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20464,7 +20464,7 @@
         <v>44918.46096064815</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20521,7 +20521,7 @@
         <v>45583.47204861111</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20578,7 +20578,7 @@
         <v>45705.36880787037</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20635,7 +20635,7 @@
         <v>45700.77680555556</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20692,7 +20692,7 @@
         <v>46044</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20749,7 +20749,7 @@
         <v>46043.85776620371</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -20806,7 +20806,7 @@
         <v>44917.51208333333</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
         <v>44574</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -20920,7 +20920,7 @@
         <v>45771.53150462963</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -20977,7 +20977,7 @@
         <v>45771.53564814815</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21034,7 +21034,7 @@
         <v>45771.54677083333</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21091,7 +21091,7 @@
         <v>45277.77255787037</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21148,7 +21148,7 @@
         <v>44380</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21205,7 +21205,7 @@
         <v>45763.67412037037</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21262,7 +21262,7 @@
         <v>45772.66784722222</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21319,7 +21319,7 @@
         <v>45756.49090277778</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21376,7 +21376,7 @@
         <v>45565.55225694444</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21433,7 +21433,7 @@
         <v>46064.57457175926</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21490,7 +21490,7 @@
         <v>46064.36384259259</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         <v>44952.54989583333</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21604,7 +21604,7 @@
         <v>44665.67701388889</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21661,7 +21661,7 @@
         <v>45400.51723379629</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21718,7 +21718,7 @@
         <v>45527.48158564815</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21775,7 +21775,7 @@
         <v>45233.64104166667</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -21832,7 +21832,7 @@
         <v>44691</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -21889,7 +21889,7 @@
         <v>44459</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -21946,7 +21946,7 @@
         <v>46071.53856481481</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22003,7 +22003,7 @@
         <v>46071.54019675926</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22060,7 +22060,7 @@
         <v>45614.6421875</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22117,7 +22117,7 @@
         <v>46070.46819444445</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22174,7 +22174,7 @@
         <v>46072.33856481482</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22231,7 +22231,7 @@
         <v>46031</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22288,7 +22288,7 @@
         <v>46031</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22345,7 +22345,7 @@
         <v>46031</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22402,7 +22402,7 @@
         <v>46031</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22459,7 +22459,7 @@
         <v>45077</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22516,7 +22516,7 @@
         <v>44893.40965277778</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22573,7 +22573,7 @@
         <v>45373.65864583333</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22630,7 +22630,7 @@
         <v>46031.43129629629</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22687,7 +22687,7 @@
         <v>45280.37271990741</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22744,7 +22744,7 @@
         <v>46031</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -22801,7 +22801,7 @@
         <v>46073.46758101852</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -22858,7 +22858,7 @@
         <v>46031.33475694444</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -22915,7 +22915,7 @@
         <v>46031</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -22972,7 +22972,7 @@
         <v>46073.34045138889</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23029,7 +23029,7 @@
         <v>45614.48202546296</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23086,7 +23086,7 @@
         <v>45189.9100925926</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23143,7 +23143,7 @@
         <v>45236.67905092592</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23200,7 +23200,7 @@
         <v>44811</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23257,7 +23257,7 @@
         <v>45327</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23314,7 +23314,7 @@
         <v>44551.40778935186</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23371,7 +23371,7 @@
         <v>45265.65418981481</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23428,7 +23428,7 @@
         <v>45211.72998842593</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23485,7 +23485,7 @@
         <v>44638.47725694445</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23542,7 +23542,7 @@
         <v>45763.66309027778</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23599,7 +23599,7 @@
         <v>45763.68108796296</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23656,7 +23656,7 @@
         <v>45009.50658564815</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23713,7 +23713,7 @@
         <v>45160.75662037037</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -23770,7 +23770,7 @@
         <v>44867.368125</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -23827,7 +23827,7 @@
         <v>45760.88792824074</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -23884,7 +23884,7 @@
         <v>45303.53243055556</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -23941,7 +23941,7 @@
         <v>45219.48835648148</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -23998,7 +23998,7 @@
         <v>45526.53488425926</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24055,7 +24055,7 @@
         <v>45266</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24112,7 +24112,7 @@
         <v>44890.66738425926</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24169,7 +24169,7 @@
         <v>45222</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         <v>45468.60724537037</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         <v>45713.4958912037</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24340,7 +24340,7 @@
         <v>45736.58108796296</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24397,7 +24397,7 @@
         <v>44733.444375</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24454,7 +24454,7 @@
         <v>45705.37196759259</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24511,7 +24511,7 @@
         <v>44644</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24568,7 +24568,7 @@
         <v>45231</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24625,7 +24625,7 @@
         <v>45595.79767361111</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24682,7 +24682,7 @@
         <v>45679</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -24739,7 +24739,7 @@
         <v>44719</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -24796,7 +24796,7 @@
         <v>45016.7299537037</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -24853,7 +24853,7 @@
         <v>45616.64193287037</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -24910,7 +24910,7 @@
         <v>45616.64283564815</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>45021.3778587963</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25024,7 +25024,7 @@
         <v>45482</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25081,7 +25081,7 @@
         <v>45247.60436342593</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25138,7 +25138,7 @@
         <v>45763.8155787037</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25200,7 +25200,7 @@
         <v>45298.51369212963</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25257,7 +25257,7 @@
         <v>45736.57563657407</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25314,7 +25314,7 @@
         <v>44396</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25371,7 +25371,7 @@
         <v>45546.55621527778</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25428,7 +25428,7 @@
         <v>45005</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25485,7 +25485,7 @@
         <v>44757.52935185185</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25542,7 +25542,7 @@
         <v>45685.65405092593</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25599,7 +25599,7 @@
         <v>45168.65719907408</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25656,7 +25656,7 @@
         <v>45587.45049768518</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25713,7 +25713,7 @@
         <v>45747.42072916667</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -25770,7 +25770,7 @@
         <v>44605.61115740741</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -25827,7 +25827,7 @@
         <v>44300.57024305555</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -25884,7 +25884,7 @@
         <v>45414.36018518519</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -25941,7 +25941,7 @@
         <v>44908.62335648148</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -25998,7 +25998,7 @@
         <v>45615.53488425926</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26055,7 +26055,7 @@
         <v>44357</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26112,7 +26112,7 @@
         <v>45728.78711805555</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26169,7 +26169,7 @@
         <v>44740.44717592592</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         <v>45713.4978125</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26283,7 +26283,7 @@
         <v>45713.49877314815</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26340,7 +26340,7 @@
         <v>45277</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26397,7 +26397,7 @@
         <v>45793.38550925926</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26454,7 +26454,7 @@
         <v>45792.5219212963</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26511,7 +26511,7 @@
         <v>45796.44579861111</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26568,7 +26568,7 @@
         <v>45798.52034722222</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26625,7 +26625,7 @@
         <v>45803.35596064815</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26682,7 +26682,7 @@
         <v>45803.35204861111</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -26739,7 +26739,7 @@
         <v>45803.3384375</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -26796,7 +26796,7 @@
         <v>45803.35353009259</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -26853,7 +26853,7 @@
         <v>45805.4690625</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -26910,7 +26910,7 @@
         <v>45511.48479166667</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -26967,7 +26967,7 @@
         <v>45810.65199074074</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27024,7 +27024,7 @@
         <v>45548.40048611111</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27081,7 +27081,7 @@
         <v>45811.33570601852</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27138,7 +27138,7 @@
         <v>45418</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27195,7 +27195,7 @@
         <v>45345.40760416666</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27252,7 +27252,7 @@
         <v>45267.45653935185</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>

--- a/Översikt HERRLJUNGA.xlsx
+++ b/Översikt HERRLJUNGA.xlsx
@@ -575,7 +575,7 @@
         <v>45072</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44546</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>45399.49349537037</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         <v>45771.63234953704</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>44876.75724537037</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>44378.55261574074</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>44422.5627662037</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>44417.48436342592</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>44529.49225694445</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
         <v>44525.61166666666</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>44417</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1333,7 +1333,7 @@
         <v>44473.51674768519</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>44497.37104166667</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>44307</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>44533</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>44496.39097222222</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1618,7 +1618,7 @@
         <v>44474</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         <v>44474.42125</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         <v>44441</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1789,7 +1789,7 @@
         <v>44417.41164351852</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>44719</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
         <v>44754.85047453704</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1960,7 +1960,7 @@
         <v>44455.40164351852</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2017,7 +2017,7 @@
         <v>44313</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2074,7 +2074,7 @@
         <v>44447.30947916667</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         <v>44659</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
         <v>44295.6893287037</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         <v>44417.48297453704</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2302,7 +2302,7 @@
         <v>44452</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2359,7 +2359,7 @@
         <v>44790.6769212963</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         <v>44449.66033564815</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>44447</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>44455.40453703704</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>44476.61636574074</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>44313</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>44496.38925925926</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         <v>44790.69194444444</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2815,7 +2815,7 @@
         <v>44601.67113425926</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         <v>44459</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2929,7 +2929,7 @@
         <v>44659</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2986,7 +2986,7 @@
         <v>44363</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         <v>44775.58739583333</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3100,7 +3100,7 @@
         <v>44868.60407407407</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3157,7 +3157,7 @@
         <v>44638.47898148148</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3214,7 +3214,7 @@
         <v>44441.52818287037</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>44834.48917824074</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
         <v>44441.53571759259</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
         <v>44519.36746527778</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3442,7 +3442,7 @@
         <v>44502.78605324074</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
         <v>44305</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         <v>44831.58648148148</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3613,7 +3613,7 @@
         <v>44817.35599537037</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3670,7 +3670,7 @@
         <v>44581.42015046296</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3727,7 +3727,7 @@
         <v>44838.56086805555</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3784,7 +3784,7 @@
         <v>44748.42290509259</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>44847</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3898,7 +3898,7 @@
         <v>44538.58409722222</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         <v>44421</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4012,7 +4012,7 @@
         <v>45723.64576388889</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4069,7 +4069,7 @@
         <v>45724.41099537037</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4126,7 +4126,7 @@
         <v>45335.57622685185</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4183,7 +4183,7 @@
         <v>45527.48158564815</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4240,7 +4240,7 @@
         <v>45266</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4297,7 +4297,7 @@
         <v>45705.42427083333</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4354,7 +4354,7 @@
         <v>44811</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         <v>44900.43481481481</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4468,7 +4468,7 @@
         <v>45357</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
         <v>45265.65418981481</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4587,7 +4587,7 @@
         <v>45425.42435185185</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4644,7 +4644,7 @@
         <v>44847</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         <v>45373</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4763,7 +4763,7 @@
         <v>44357</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         <v>45350.58181712963</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4877,7 +4877,7 @@
         <v>44380</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4934,7 +4934,7 @@
         <v>45365.49547453703</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         <v>45317.48802083333</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
         <v>45446</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>45482</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5167,7 +5167,7 @@
         <v>44984.78379629629</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5224,7 +5224,7 @@
         <v>45468.60724537037</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5281,7 +5281,7 @@
         <v>45277.77255787037</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         <v>44533.39519675926</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         <v>44942.38228009259</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5452,7 +5452,7 @@
         <v>45160.75662037037</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5509,7 +5509,7 @@
         <v>45476.72542824074</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5566,7 +5566,7 @@
         <v>45614.64645833334</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5623,7 +5623,7 @@
         <v>45614.65366898148</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5680,7 +5680,7 @@
         <v>45030.39709490741</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5737,7 +5737,7 @@
         <v>45005</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5794,7 +5794,7 @@
         <v>45303.57658564814</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         <v>44918.46096064815</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5908,7 +5908,7 @@
         <v>45803.35596064815</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5965,7 +5965,7 @@
         <v>45021</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6022,7 +6022,7 @@
         <v>45172</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6079,7 +6079,7 @@
         <v>44917.51072916666</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6136,7 +6136,7 @@
         <v>45805.4690625</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6193,7 +6193,7 @@
         <v>45138.40096064815</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6250,7 +6250,7 @@
         <v>44305</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>45810.65199074074</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         <v>45418</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>45595.53736111111</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
         <v>45548.40048611111</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
         <v>45511.48479166667</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         <v>45664.40298611111</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6654,7 +6654,7 @@
         <v>45771</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6711,7 +6711,7 @@
         <v>45005.33422453704</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         <v>45756</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6825,7 +6825,7 @@
         <v>45021.3778587963</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6882,7 +6882,7 @@
         <v>45684.41334490741</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6939,7 +6939,7 @@
         <v>45888</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6996,7 +6996,7 @@
         <v>45890.55415509259</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7053,7 +7053,7 @@
         <v>45890.47210648148</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         <v>45889.61847222222</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7172,7 +7172,7 @@
         <v>45811.33570601852</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7229,7 +7229,7 @@
         <v>45890</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7286,7 +7286,7 @@
         <v>45345.40760416666</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7343,7 +7343,7 @@
         <v>44950.83806712963</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7400,7 +7400,7 @@
         <v>45565.55225694444</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>45890.46686342593</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7519,7 +7519,7 @@
         <v>44860.6234375</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7576,7 +7576,7 @@
         <v>45267.45653935185</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7633,7 +7633,7 @@
         <v>45337.66972222222</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7690,7 +7690,7 @@
         <v>45819.61297453703</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         <v>45819</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         <v>45891.33506944445</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7866,7 +7866,7 @@
         <v>45587.43553240741</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7923,7 +7923,7 @@
         <v>45894.47168981482</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7980,7 +7980,7 @@
         <v>45526.53488425926</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8037,7 +8037,7 @@
         <v>45526.52795138889</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8094,7 +8094,7 @@
         <v>45896.68271990741</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8151,7 +8151,7 @@
         <v>45897.65413194444</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8208,7 +8208,7 @@
         <v>45897.65601851852</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>45897.65775462963</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8322,7 +8322,7 @@
         <v>45897.64824074074</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>45897.64988425926</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>45897.65219907407</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8493,7 +8493,7 @@
         <v>45897.49462962963</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8550,7 +8550,7 @@
         <v>45743.38391203704</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8607,7 +8607,7 @@
         <v>45733.36819444445</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8669,7 +8669,7 @@
         <v>45737.38832175926</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8726,7 +8726,7 @@
         <v>45897.64601851852</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8783,7 +8783,7 @@
         <v>45736.60548611111</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8840,7 +8840,7 @@
         <v>45728.64533564815</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8897,7 +8897,7 @@
         <v>45827.35715277777</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8954,7 +8954,7 @@
         <v>45726.60582175926</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9011,7 +9011,7 @@
         <v>45736.60425925926</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9068,7 +9068,7 @@
         <v>45827.37181712963</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9125,7 +9125,7 @@
         <v>45728.45510416666</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9182,7 +9182,7 @@
         <v>45728.45725694444</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9239,7 +9239,7 @@
         <v>45763.80842592593</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9301,7 +9301,7 @@
         <v>45614.48202546296</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
         <v>44679.53668981481</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9415,7 +9415,7 @@
         <v>45833.3154050926</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9472,7 +9472,7 @@
         <v>45833.32037037037</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9529,7 +9529,7 @@
         <v>45713.4958912037</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9586,7 +9586,7 @@
         <v>45908.3166087963</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9643,7 +9643,7 @@
         <v>45834.64103009259</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9700,7 +9700,7 @@
         <v>45834.41769675926</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9757,7 +9757,7 @@
         <v>45835.61480324074</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9814,7 +9814,7 @@
         <v>45622.57908564815</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9871,7 +9871,7 @@
         <v>45005.37168981481</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9928,7 +9928,7 @@
         <v>45838.32111111111</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9985,7 +9985,7 @@
         <v>44459</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10042,7 +10042,7 @@
         <v>45273</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10099,7 +10099,7 @@
         <v>45841</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10156,7 +10156,7 @@
         <v>45841</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10213,7 +10213,7 @@
         <v>45567.60662037037</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10270,7 +10270,7 @@
         <v>44890.66952546296</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10327,7 +10327,7 @@
         <v>44757.52935185185</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10384,7 +10384,7 @@
         <v>44958.48936342593</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
         <v>45480.63773148148</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10498,7 +10498,7 @@
         <v>44644</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10555,7 +10555,7 @@
         <v>45639.54719907408</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10612,7 +10612,7 @@
         <v>45916.49414351852</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>45916.48246527778</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10726,7 +10726,7 @@
         <v>45615.37197916667</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10783,7 +10783,7 @@
         <v>45581.35340277778</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10840,7 +10840,7 @@
         <v>45614.6421875</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>44977.31903935185</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10954,7 +10954,7 @@
         <v>45678.58040509259</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11011,7 +11011,7 @@
         <v>45916.67724537037</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11073,7 +11073,7 @@
         <v>45859.47175925926</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11130,7 +11130,7 @@
         <v>44300.57024305555</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11187,7 +11187,7 @@
         <v>45918.66608796296</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11244,7 +11244,7 @@
         <v>44256</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11301,7 +11301,7 @@
         <v>45705.37196759259</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11358,7 +11358,7 @@
         <v>45919.38120370371</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11415,7 +11415,7 @@
         <v>45922.33628472222</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11472,7 +11472,7 @@
         <v>45679</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>45099.60644675926</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11586,7 +11586,7 @@
         <v>45922.85353009259</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         <v>45922.85178240741</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11700,7 +11700,7 @@
         <v>45922.85010416667</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11757,7 +11757,7 @@
         <v>45925.71373842593</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11814,7 +11814,7 @@
         <v>45926.46318287037</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         <v>45149.65513888889</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11928,7 +11928,7 @@
         <v>45929.70454861111</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11985,7 +11985,7 @@
         <v>45873.73373842592</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12042,7 +12042,7 @@
         <v>45873.73810185185</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12099,7 +12099,7 @@
         <v>45705.38988425926</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12156,7 +12156,7 @@
         <v>45876.43549768518</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12213,7 +12213,7 @@
         <v>45875.46065972222</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12270,7 +12270,7 @@
         <v>45875.46194444445</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12327,7 +12327,7 @@
         <v>45875.49515046296</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12384,7 +12384,7 @@
         <v>45772.66884259259</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12441,7 +12441,7 @@
         <v>45839.46179398148</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12498,7 +12498,7 @@
         <v>45931.66099537037</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12555,7 +12555,7 @@
         <v>45742.43068287037</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12612,7 +12612,7 @@
         <v>45933.66127314815</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12669,7 +12669,7 @@
         <v>44847.43722222222</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12731,7 +12731,7 @@
         <v>45155.55261574074</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>45713.4978125</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12845,7 +12845,7 @@
         <v>45713.49877314815</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>45172</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12959,7 +12959,7 @@
         <v>44995</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13016,7 +13016,7 @@
         <v>45677.57553240741</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13073,7 +13073,7 @@
         <v>45310.35899305555</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13135,7 +13135,7 @@
         <v>45770.69283564815</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13192,7 +13192,7 @@
         <v>45938.52655092593</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13249,7 +13249,7 @@
         <v>45077</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13306,7 +13306,7 @@
         <v>45883.40136574074</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13363,7 +13363,7 @@
         <v>44295.51916666667</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13420,7 +13420,7 @@
         <v>44790</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13477,7 +13477,7 @@
         <v>44866</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13534,7 +13534,7 @@
         <v>45072</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13616,7 +13616,7 @@
         <v>44995</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13673,7 +13673,7 @@
         <v>45736.57993055556</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13730,7 +13730,7 @@
         <v>44524.56443287037</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13787,7 +13787,7 @@
         <v>45517.57243055556</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13849,7 +13849,7 @@
         <v>45266</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13906,7 +13906,7 @@
         <v>45233.64104166667</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13963,7 +13963,7 @@
         <v>45085.57719907408</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14020,7 +14020,7 @@
         <v>45084.85409722223</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14077,7 +14077,7 @@
         <v>44419.62418981481</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14134,7 +14134,7 @@
         <v>44900</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14191,7 +14191,7 @@
         <v>44882</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14248,7 +14248,7 @@
         <v>45098.71601851852</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14305,7 +14305,7 @@
         <v>45947.57166666666</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14362,7 +14362,7 @@
         <v>44396</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         <v>45950.36163194444</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14476,7 +14476,7 @@
         <v>45950.36862268519</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14533,7 +14533,7 @@
         <v>45721.73456018518</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14590,7 +14590,7 @@
         <v>45947.57024305555</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14647,7 +14647,7 @@
         <v>45771.53564814815</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14704,7 +14704,7 @@
         <v>45771.54677083333</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14761,7 +14761,7 @@
         <v>45950.36725694445</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14818,7 +14818,7 @@
         <v>45763.8155787037</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14880,7 +14880,7 @@
         <v>45952.5709375</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14937,7 +14937,7 @@
         <v>45952.60252314815</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -14994,7 +14994,7 @@
         <v>44908.62335648148</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15051,7 +15051,7 @@
         <v>45952.55898148148</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15108,7 +15108,7 @@
         <v>45952.56828703704</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15165,7 +15165,7 @@
         <v>44914.28622685185</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15222,7 +15222,7 @@
         <v>45222</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15279,7 +15279,7 @@
         <v>45771.53150462963</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15336,7 +15336,7 @@
         <v>45957.6135300926</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15393,7 +15393,7 @@
         <v>45957.60668981481</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15450,7 +15450,7 @@
         <v>45957</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15507,7 +15507,7 @@
         <v>45959</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15564,7 +15564,7 @@
         <v>44511.61333333333</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15621,7 +15621,7 @@
         <v>45960.61454861111</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15678,7 +15678,7 @@
         <v>44952.54989583333</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15735,7 +15735,7 @@
         <v>45964.56824074074</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15792,7 +15792,7 @@
         <v>45966.64700231481</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15849,7 +15849,7 @@
         <v>45966.64835648148</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15906,7 +15906,7 @@
         <v>45107.91672453703</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -15963,7 +15963,7 @@
         <v>45247.60436342593</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16020,7 +16020,7 @@
         <v>45702.55307870371</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16077,7 +16077,7 @@
         <v>45277</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16134,7 +16134,7 @@
         <v>45327.49081018518</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16191,7 +16191,7 @@
         <v>45168.65719907408</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16248,7 +16248,7 @@
         <v>45163</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16305,7 +16305,7 @@
         <v>45051.6987037037</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16362,7 +16362,7 @@
         <v>45414.36018518519</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16419,7 +16419,7 @@
         <v>45453.82998842592</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16476,7 +16476,7 @@
         <v>44574</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16533,7 +16533,7 @@
         <v>45578.74212962963</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16590,7 +16590,7 @@
         <v>44524.56353009259</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16647,7 +16647,7 @@
         <v>45978.56829861111</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16704,7 +16704,7 @@
         <v>45974.75811342592</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16761,7 +16761,7 @@
         <v>45707.23298611111</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>45980.32965277778</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -16875,7 +16875,7 @@
         <v>45176.32940972222</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -16932,7 +16932,7 @@
         <v>45009.505625</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -16989,7 +16989,7 @@
         <v>45595.79767361111</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17046,7 +17046,7 @@
         <v>45583.47204861111</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17103,7 +17103,7 @@
         <v>45189.9100925926</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17160,7 +17160,7 @@
         <v>45582.65775462963</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>45985.36587962963</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>45986.63912037037</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>44525</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>45985.37597222222</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
         <v>45614.63621527778</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17502,7 +17502,7 @@
         <v>45986.63512731482</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17559,7 +17559,7 @@
         <v>45986.64166666667</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17616,7 +17616,7 @@
         <v>45985.36349537037</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17673,7 +17673,7 @@
         <v>45092</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17730,7 +17730,7 @@
         <v>45763.66309027778</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17787,7 +17787,7 @@
         <v>46029</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -17849,7 +17849,7 @@
         <v>46029</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>45986.84456018519</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -17968,7 +17968,7 @@
         <v>45567.46769675926</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18025,7 +18025,7 @@
         <v>44551.40778935186</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>45989.66394675926</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18144,7 +18144,7 @@
         <v>45989.46027777778</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18206,7 +18206,7 @@
         <v>45337.68260416666</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18263,7 +18263,7 @@
         <v>45993.60032407408</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18320,7 +18320,7 @@
         <v>45996.31261574074</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18382,7 +18382,7 @@
         <v>44593</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18439,7 +18439,7 @@
         <v>45196</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18496,7 +18496,7 @@
         <v>46000</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18553,7 +18553,7 @@
         <v>45082</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18615,7 +18615,7 @@
         <v>45679</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18672,7 +18672,7 @@
         <v>46000</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18729,7 +18729,7 @@
         <v>45194.4964699074</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18786,7 +18786,7 @@
         <v>46043.339375</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18843,7 +18843,7 @@
         <v>44665.67701388889</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -18900,7 +18900,7 @@
         <v>46043</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -18957,7 +18957,7 @@
         <v>45101.80099537037</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19014,7 +19014,7 @@
         <v>45615.53488425926</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19071,7 +19071,7 @@
         <v>45660.50104166667</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19128,7 +19128,7 @@
         <v>46048.39719907408</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19185,7 +19185,7 @@
         <v>44740.44717592592</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19242,7 +19242,7 @@
         <v>46006.43011574074</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19304,7 +19304,7 @@
         <v>44686.65587962963</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19361,7 +19361,7 @@
         <v>45685.45357638889</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19418,7 +19418,7 @@
         <v>44638.47725694445</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19475,7 +19475,7 @@
         <v>45155.55584490741</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19532,7 +19532,7 @@
         <v>45621.52608796296</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19589,7 +19589,7 @@
         <v>46050.49346064815</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19646,7 +19646,7 @@
         <v>44900.43155092592</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19703,7 +19703,7 @@
         <v>45763.67412037037</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19760,7 +19760,7 @@
         <v>45772.66784722222</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19817,7 +19817,7 @@
         <v>45446</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -19874,7 +19874,7 @@
         <v>46044</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -19931,7 +19931,7 @@
         <v>45236.67905092592</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -19988,7 +19988,7 @@
         <v>44686.65185185185</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20045,7 +20045,7 @@
         <v>46013</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20102,7 +20102,7 @@
         <v>44313.89017361111</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20159,7 +20159,7 @@
         <v>45188.80806712963</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20216,7 +20216,7 @@
         <v>46013</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20273,7 +20273,7 @@
         <v>46043.85776620371</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20330,7 +20330,7 @@
         <v>44719</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20387,7 +20387,7 @@
         <v>45700.77680555556</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20444,7 +20444,7 @@
         <v>45705.36880787037</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20501,7 +20501,7 @@
         <v>44867.368125</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20558,7 +20558,7 @@
         <v>45303.59265046296</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20615,7 +20615,7 @@
         <v>44700.61409722222</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20672,7 +20672,7 @@
         <v>45756.49090277778</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20729,7 +20729,7 @@
         <v>45265</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         <v>46064.36384259259</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -20843,7 +20843,7 @@
         <v>45327.47517361111</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -20900,7 +20900,7 @@
         <v>45271.49912037037</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -20957,7 +20957,7 @@
         <v>45747.42072916667</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21014,7 +21014,7 @@
         <v>45019.2590162037</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21071,7 +21071,7 @@
         <v>45736.58108796296</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21128,7 +21128,7 @@
         <v>46070.46819444445</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21185,7 +21185,7 @@
         <v>45285</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21242,7 +21242,7 @@
         <v>46072.33856481482</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21299,7 +21299,7 @@
         <v>46071.53856481481</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21356,7 +21356,7 @@
         <v>45562.75159722222</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21413,7 +21413,7 @@
         <v>45298.51369212963</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21470,7 +21470,7 @@
         <v>46071.54019675926</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21527,7 +21527,7 @@
         <v>46031</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21584,7 +21584,7 @@
         <v>46031</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21641,7 +21641,7 @@
         <v>45219.48835648148</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21698,7 +21698,7 @@
         <v>45728.78711805555</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21755,7 +21755,7 @@
         <v>45335.36597222222</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -21812,7 +21812,7 @@
         <v>46031</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -21869,7 +21869,7 @@
         <v>46031.43129629629</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -21926,7 +21926,7 @@
         <v>46031</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -21983,7 +21983,7 @@
         <v>46031.33475694444</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22040,7 +22040,7 @@
         <v>45303.53243055556</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22097,7 +22097,7 @@
         <v>46031</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22154,7 +22154,7 @@
         <v>45546.55621527778</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22211,7 +22211,7 @@
         <v>44917.50943287037</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22268,7 +22268,7 @@
         <v>46073.34045138889</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22325,7 +22325,7 @@
         <v>46031</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22382,7 +22382,7 @@
         <v>44854</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22439,7 +22439,7 @@
         <v>45546.47134259259</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22496,7 +22496,7 @@
         <v>45546.47361111111</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22553,7 +22553,7 @@
         <v>46036.52319444445</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22610,7 +22610,7 @@
         <v>46073</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22667,7 +22667,7 @@
         <v>44890.66738425926</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22724,7 +22724,7 @@
         <v>46064.57457175926</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -22781,7 +22781,7 @@
         <v>45265.65109953703</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -22838,7 +22838,7 @@
         <v>46035.55513888889</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -22895,7 +22895,7 @@
         <v>45155.54638888889</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -22952,7 +22952,7 @@
         <v>44605.61115740741</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23009,7 +23009,7 @@
         <v>46036.67758101852</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23066,7 +23066,7 @@
         <v>45231</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23123,7 +23123,7 @@
         <v>44659</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23180,7 +23180,7 @@
         <v>46079.62262731481</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23237,7 +23237,7 @@
         <v>45177.67642361111</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23294,7 +23294,7 @@
         <v>45153.56390046296</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23351,7 +23351,7 @@
         <v>45705.78310185186</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23408,7 +23408,7 @@
         <v>44474.35072916667</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23465,7 +23465,7 @@
         <v>45624.7383912037</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23522,7 +23522,7 @@
         <v>44691</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23579,7 +23579,7 @@
         <v>45214.8296875</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23636,7 +23636,7 @@
         <v>45009.50658564815</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23693,7 +23693,7 @@
         <v>45728.64429398148</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -23750,7 +23750,7 @@
         <v>45614.64042824074</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -23807,7 +23807,7 @@
         <v>44895</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -23864,7 +23864,7 @@
         <v>45153.60082175926</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -23921,7 +23921,7 @@
         <v>44295.51916666667</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -23978,7 +23978,7 @@
         <v>45736.57563657407</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24035,7 +24035,7 @@
         <v>45016.7299537037</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24092,7 +24092,7 @@
         <v>44566.54390046297</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24149,7 +24149,7 @@
         <v>45433</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24206,7 +24206,7 @@
         <v>44980.34190972222</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24263,7 +24263,7 @@
         <v>44942.38057870371</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24320,7 +24320,7 @@
         <v>44917.51208333333</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24377,7 +24377,7 @@
         <v>45491</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24434,7 +24434,7 @@
         <v>44733.444375</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24491,7 +24491,7 @@
         <v>45138.39662037037</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24548,7 +24548,7 @@
         <v>44380</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24605,7 +24605,7 @@
         <v>45377.36488425926</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24662,7 +24662,7 @@
         <v>45086.47355324074</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -24719,7 +24719,7 @@
         <v>45306.61697916667</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -24776,7 +24776,7 @@
         <v>45267.43561342593</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -24833,7 +24833,7 @@
         <v>45267</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -24890,7 +24890,7 @@
         <v>45315.40715277778</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -24947,7 +24947,7 @@
         <v>45728.59554398148</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25004,7 +25004,7 @@
         <v>45763.68108796296</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25061,7 +25061,7 @@
         <v>45306.61583333334</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25118,7 +25118,7 @@
         <v>44893.40965277778</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25175,7 +25175,7 @@
         <v>45708.36219907407</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25232,7 +25232,7 @@
         <v>45303.53072916667</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25289,7 +25289,7 @@
         <v>45159</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25346,7 +25346,7 @@
         <v>45678.67545138889</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25403,7 +25403,7 @@
         <v>45587.70663194444</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25465,7 +25465,7 @@
         <v>45587.74337962963</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25527,7 +25527,7 @@
         <v>45639.5506712963</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25584,7 +25584,7 @@
         <v>45280.37271990741</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25641,7 +25641,7 @@
         <v>45211.72998842593</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -25698,7 +25698,7 @@
         <v>45321.57921296296</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -25755,7 +25755,7 @@
         <v>45212.49534722222</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -25812,7 +25812,7 @@
         <v>45618.70145833334</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -25869,7 +25869,7 @@
         <v>45373.65864583333</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -25926,7 +25926,7 @@
         <v>45685.65405092593</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -25983,7 +25983,7 @@
         <v>45327</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26040,7 +26040,7 @@
         <v>45082</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26102,7 +26102,7 @@
         <v>45587.45049768518</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26159,7 +26159,7 @@
         <v>44904</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26221,7 +26221,7 @@
         <v>44904</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26283,7 +26283,7 @@
         <v>45643.63238425926</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26340,7 +26340,7 @@
         <v>45723.64722222222</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26397,7 +26397,7 @@
         <v>45603.61920138889</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26454,7 +26454,7 @@
         <v>45616.64193287037</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26511,7 +26511,7 @@
         <v>45616.64283564815</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26568,7 +26568,7 @@
         <v>45557</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26625,7 +26625,7 @@
         <v>45760.88792824074</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26682,7 +26682,7 @@
         <v>45400.51723379629</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -26739,7 +26739,7 @@
         <v>45274.60491898148</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -26796,7 +26796,7 @@
         <v>45792.5219212963</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -26853,7 +26853,7 @@
         <v>45793.38550925926</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -26910,7 +26910,7 @@
         <v>45796.44579861111</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -26967,7 +26967,7 @@
         <v>45798.52034722222</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27024,7 +27024,7 @@
         <v>45803.3384375</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27081,7 +27081,7 @@
         <v>45803.35204861111</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27138,7 +27138,7 @@
         <v>45803.35353009259</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
